--- a/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikenaga0605\Desktop\Git - コピー\02Ikenaga\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692F0D0B-E91F-4E18-A2AC-A3333DBD5BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94F4A12-7D4E-4D31-A75C-D0EBAC2F5850}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -715,6 +715,27 @@
     </rPh>
     <rPh sb="23" eb="24">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>ヒク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1624,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC4F207-852D-4D86-9999-6CE7E9561365}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L72" sqref="L72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2293,6 +2314,9 @@
       <c r="I56">
         <v>1</v>
       </c>
+      <c r="J56" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H57" t="s">
@@ -2301,6 +2325,9 @@
       <c r="I57">
         <v>1</v>
       </c>
+      <c r="J57" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="58" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H58" t="s">
@@ -2309,6 +2336,9 @@
       <c r="I58">
         <v>0.5</v>
       </c>
+      <c r="J58" s="12" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="59" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H59" t="s">
@@ -2317,6 +2347,9 @@
       <c r="I59">
         <v>0.1</v>
       </c>
+      <c r="J59" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="K59">
         <v>2.6</v>
       </c>
@@ -2336,6 +2369,9 @@
       <c r="I62">
         <v>3</v>
       </c>
+      <c r="J62" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="K62">
         <v>3</v>
       </c>
@@ -2352,6 +2388,9 @@
       <c r="I65">
         <v>1</v>
       </c>
+      <c r="J65" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="K65">
         <v>1</v>
       </c>
@@ -2371,6 +2410,9 @@
       <c r="I68">
         <v>0.5</v>
       </c>
+      <c r="J68" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="69" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H69" t="s">
@@ -2379,6 +2421,9 @@
       <c r="I69">
         <v>0.5</v>
       </c>
+      <c r="J69" s="12" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="70" spans="8:13" x14ac:dyDescent="0.45">
       <c r="H70" t="s">
@@ -2387,6 +2432,9 @@
       <c r="I70">
         <v>0.6</v>
       </c>
+      <c r="J70" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="K70">
         <v>1.6</v>
       </c>
@@ -2404,7 +2452,10 @@
       <c r="J72" t="s">
         <v>62</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M72">
         <v>10</v>
       </c>
     </row>

--- a/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikenaga0605\Desktop\Git - コピー\02Ikenaga\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7906C3BC-668C-4C80-A9EE-CFEAF17528E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478851A3-D8DB-44F6-94E5-A9200373FDF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="フローチャート" sheetId="2" r:id="rId3"/>
     <sheet name="作業タスクの洗い出し" sheetId="3" r:id="rId4"/>
     <sheet name="ゲームシーン" sheetId="5" r:id="rId5"/>
+    <sheet name="キャラ" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -993,6 +994,363 @@
   </si>
   <si>
     <t>https://assetstore.unity.com/packages/3d/characters/animals/mammals/golden-tiger-55797#description</t>
+  </si>
+  <si>
+    <t>※なかったら四足歩行</t>
+  </si>
+  <si>
+    <t>・素早さを武器に相手の攻撃を避ける</t>
+    <rPh sb="1" eb="3">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・特殊攻撃はレベル1、レベル5、レベル10、レベル10０で使えるようになる</t>
+    <rPh sb="1" eb="5">
+      <t>トクシュコウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・二足歩行で歩き鋭い爪で攻撃する</t>
+    <rPh sb="1" eb="3">
+      <t>ニソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベルが上がるとHP、攻撃、素早さ、防御力が上がり、攻撃範囲広くなり、大きさが大きくなる</t>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・四足歩行で鋭い牙で相手に思い一撃を与える</t>
+    <rPh sb="1" eb="3">
+      <t>ヨンソク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キバ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イチゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・攻撃の高さが武器で敵を倒す</t>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・素早くないので攻撃が当たりやすい</t>
+    <rPh sb="1" eb="3">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル100では鬼狩りモードで相手に近づくと強力</t>
+    <rPh sb="9" eb="11">
+      <t>オニガ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル100では野獣の本性で発動すると攻撃があがりジャンプで範囲攻撃ができる</t>
+    <rPh sb="9" eb="11">
+      <t>ヤジュウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホンセイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・空を飛んでいるが攻撃がとても低い</t>
+    <rPh sb="1" eb="2">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・遠距離攻撃を武器とし敵を倒す</t>
+    <rPh sb="1" eb="6">
+      <t>エンキョリコウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※噛むイメージの攻撃</t>
+    <rPh sb="1" eb="2">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※爪でひっかくイメージの攻撃</t>
+    <rPh sb="1" eb="2">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※移動は人間と同じ</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※移動は四足歩行</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>ヨンソクホコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※つつく攻撃のイメージ</t>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※移動は飛んでいる</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル上げが大変</t>
+    <rPh sb="4" eb="5">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・敵の攻撃は当たりにくい</t>
+    <rPh sb="1" eb="2">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル100では怒りモードで発動すると攻撃があがりSAが増えるが素早さが下がる</t>
+    <rPh sb="9" eb="10">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハツドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>狼</t>
+    <rPh sb="0" eb="1">
+      <t>オオカミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライオン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳥</t>
+    <rPh sb="0" eb="1">
+      <t>トリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兎</t>
+    <rPh sb="0" eb="1">
+      <t>ウサギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1571,8 +1929,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>169168</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="10" name="インク 9">
@@ -1591,7 +1949,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="10" name="インク 9">
@@ -1636,8 +1994,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>227488</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="11" name="インク 10">
@@ -1656,7 +2014,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="11" name="インク 10">
@@ -1701,8 +2059,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>17968</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="12" name="インク 11">
@@ -1721,7 +2079,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="12" name="インク 11">
@@ -1766,8 +2124,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>151528</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="13" name="インク 12">
@@ -1786,7 +2144,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="13" name="インク 12">
@@ -1831,8 +2189,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>22648</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="14" name="インク 13">
@@ -1851,7 +2209,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="14" name="インク 13">
@@ -1896,8 +2254,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>1408</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="15" name="インク 14">
@@ -1916,7 +2274,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="15" name="インク 14">
@@ -1961,8 +2319,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>189688</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="16" name="インク 15">
@@ -1981,7 +2339,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="16" name="インク 15">
@@ -2026,8 +2384,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>139288</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="17" name="インク 16">
@@ -2046,7 +2404,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="17" name="インク 16">
@@ -2091,8 +2449,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>178888</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="18" name="インク 17">
@@ -2111,7 +2469,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="18" name="インク 17">
@@ -2156,8 +2514,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>186448</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="19" name="インク 18">
@@ -2176,7 +2534,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="19" name="インク 18">
@@ -2221,8 +2579,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>16168</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="20" name="インク 19">
@@ -2241,7 +2599,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="20" name="インク 19">
@@ -2286,8 +2644,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>79168</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="21" name="インク 20">
@@ -2306,7 +2664,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="21" name="インク 20">
@@ -2351,8 +2709,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>203008</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="22" name="インク 21">
@@ -2371,7 +2729,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="22" name="インク 21">
@@ -2416,8 +2774,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>204448</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="インク 22">
@@ -2436,7 +2794,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="インク 22">
@@ -2481,8 +2839,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>58288</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="24" name="インク 23">
@@ -2501,7 +2859,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="24" name="インク 23">
@@ -2546,8 +2904,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>169168</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="25" name="インク 24">
@@ -2566,7 +2924,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="25" name="インク 24">
@@ -2611,8 +2969,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>118048</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="26" name="インク 25">
@@ -2631,7 +2989,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="26" name="インク 25">
@@ -2676,8 +3034,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>21928</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="27" name="インク 26">
@@ -2696,7 +3054,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="27" name="インク 26">
@@ -2741,8 +3099,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>123808</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="インク 27">
@@ -2761,7 +3119,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="インク 27">
@@ -2806,8 +3164,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>6808</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="29" name="インク 28">
@@ -2826,7 +3184,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="29" name="インク 28">
@@ -2871,8 +3229,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>62248</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="30" name="インク 29">
@@ -2891,7 +3249,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="30" name="インク 29">
@@ -2936,8 +3294,8 @@
       <xdr:row>61</xdr:row>
       <xdr:rowOff>163768</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="インク 30">
@@ -2956,7 +3314,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="インク 30">
@@ -3001,8 +3359,8 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>79888</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="インク 31">
@@ -3021,7 +3379,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="インク 31">
@@ -3066,8 +3424,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>27328</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="インク 32">
@@ -3086,7 +3444,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="インク 32">
@@ -3131,8 +3489,8 @@
       <xdr:row>54</xdr:row>
       <xdr:rowOff>222088</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="インク 33">
@@ -3151,7 +3509,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="インク 33">
@@ -3196,8 +3554,8 @@
       <xdr:row>55</xdr:row>
       <xdr:rowOff>81688</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="インク 34">
@@ -3216,7 +3574,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="インク 34">
@@ -3261,8 +3619,8 @@
       <xdr:row>57</xdr:row>
       <xdr:rowOff>84928</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="36" name="インク 35">
@@ -3281,7 +3639,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="36" name="インク 35">
@@ -3326,8 +3684,8 @@
       <xdr:row>58</xdr:row>
       <xdr:rowOff>173848</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="37" name="インク 36">
@@ -3346,7 +3704,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="37" name="インク 36">
@@ -3391,8 +3749,8 @@
       <xdr:row>60</xdr:row>
       <xdr:rowOff>165928</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="インク 37">
@@ -3411,7 +3769,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="インク 37">
@@ -3456,8 +3814,8 @@
       <xdr:row>66</xdr:row>
       <xdr:rowOff>97429</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="インク 39">
@@ -3476,7 +3834,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="インク 39">
@@ -3911,6 +4269,161 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59F3047A-584C-41C1-B8C5-0C6FE8C1AEA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="175260"/>
+          <a:ext cx="2034540" cy="2034540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1FF0BC-A400-4815-AD00-309882B8305B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2468880"/>
+          <a:ext cx="2011680" cy="2011680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28351</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2215F7D-40D1-4542-9ED8-6FA62A34107F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4899660"/>
+          <a:ext cx="2040031" cy="1935480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4381,7 +4894,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="80297.267">4675 1612,'0'5,"1"10,-1 0,0 0,-1 1,-1-1,0-1,-1 1,-1 0,0-1,-1 1,-1-1,-6 12,-3 3,15-27,-1 1,0-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 0,-2 0,-178 10,-155 9,11-11,153 11,-94-20,262 0,1 0,-1 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,-1-2,0 1,-112-61,113 62,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 1,0-1,0 1,0 0,0 0,0 1,0-1,-1 2,1-1,0 1,-1 0,1 0,-5 1,-8-1,2 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="82225.461">2905 1612,'790'0,"-617"20,251-21,-639 21,-536-21,1004 13,164 7,-302-11,-1088-8,823 19,74-19,309 7,-20 18,97-16,-186-11,222 2,-751 0,314 15,137-10,222-6,-313 16,-36-10,63-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88381.481">2866 1997,'0'539,"0"-522</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.944">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.943">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91427.537">3039 2093,'597'0,"-580"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179163.202">5425 5729,'-34'-59,"18"41,-1 1,0 0,-1 2,-1 0,-1 1,-16-9,-45-43,-27-3,12 4,-78-31,36-4,130 94,0 1,1-1,-1-1,1 0,1 0,-1 0,1 0,0-1,1 0,0-1,0 1,1-1,0 0,-2-7,2 8,0 0,0 0,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 1,0 0,0 1,0 0,-1 0,1 0,-8-2,-11-10,-80-65,-64-9,95 38,-8 3,24 13,46 32</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180420.482">4136 4363,'-327'1,"210"19,115-21,-1 1,0 0,0-1,0 2,0-1,0 0,0 0,0 1,0 0,1 0,-1-1,0 2,0-1,1 0,-1 0,1 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,1 0,0-1,0 1,-1 0,2-1,-1 1,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,1 2,-1 6,0 0,0 1,2-1,-1 0,1 0,1 0,0 0,1 0,0-1,0 1,1-1,1 0,-1 0,2-1,-1 0,1 0,1 0,28 48,25 22,16-21,-35-24,-32-28</inkml:trace>
@@ -4742,7 +5255,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27216.361">6563 2938,'-1'-328,"-18"174,0-20,19-499,59 346,-52 291,-7 36,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,21 84,55 147,-47-99,6-21,-17 6,-1 0,1 0,40 115,-4-18,-53-198</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="28270.605">7524 2745,'47'-94,"-30"69,58-68,25-41,53-51,-40 25,-11 3,-73 100,89-104,72-83,-189 243,-1 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,26 222,-17-9,-12-133,-13 114,-9-63,-21 36,16-62,-43 125,60-167,8-53</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29244.182">8352 2842,'-3'17,"0"1,-2-1,0 0,0 0,-2 0,0-1,-1 0,-1 0,-7 10,7-10,-57 99,-2 0,21-26,41-78</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.723">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.722">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="60999.584">2117 3784,'-30'56,"-3"77,28-117,0 1,2 0,0 1,1-1,1 0,1 1,0-1,1 1,1 4,1 37,-3 191,19-135,31 47,-15-23,4-25,-17-79,-17-23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="62503.804">2849 3727,'22'82,"-17"-38,26 157,-12-27,-20 153,0-317,0 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-2 0,1-1,-1 0,-1 0,-27 46,-75 102,38-107,5-1,56-40,-1-1,0 0,0-1,0 0,0-1,-1 0,0-1,0 0,-1-1,1 0,-13 0,-110 39,28-18,105-25,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 1,1-2,-5-18,-2 6,0 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="68867.286">1983 4093,'-44'-39,"-63"-5,15-18,-109-44,41 34,5-11,24 11,20-2,-16 0,75 30,-79-13,68 30,62 28,-1 0,1 0,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 1,1-1,90 152,-33-55,-52-93,-1 0,1 1,-1 0,0 0,-1 1,1-1,-1 1,-1 0,1 1,-1-1,-1 1,1 0,1 5,94 100,-9-29,5 29,-15-30,38 47,-114-125,0-1,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,1-1,-1 1,1-1,-1 0,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,0-1,0 1,-1-1,1 0,4-1,72 6,40 27,-2 23,4 15,-9-12,-104-52</inkml:trace>
@@ -4928,11 +5441,11 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">194 58,'19'56,"25"141,-28-27,-8-26,2 74,-12-134,3 163,18-99,-19 1068,0 621,-21-1630,10 82,-8-116,10 40,12-178,-3 0,0 0,-3 0,-1 0,-1 0,-7 19,3-21,1 1,1 0,2 0,1 0,2 1,2 16,-12 129,-35 41,28-65,0-14,-20 101,20-70,0-20,8 87,8-218,1 1,0-1,2 1,0 0,2-1,0 1,2-1,2 7,-1 4,53 141,-37-60,43 98,-60-206,1 1,0-1,0 0,0-1,0 1,1-1,0 0,0-1,1 1,-1-1,1 0,0-1,0 0,0 0,0 0,1-1,-1 0,1 0,-1-1,1 0,0-1,-1 1,1-1,0-1,-1 0,1 0,6-2,74 9,51 21,24-11,113 18,109-7,19 21,-39-27,-220-10,0-6,33-8,-10 1,497 3,-340 19,366-20,-214 39,252-40,-413 21,161-2,157-18,-351 20,784-21,-825 22,162-11,-67-2,-168-28,566 21,-562-25,7 7,-23-1,25-1,29 0,70 5,-125-7,82 10,37-13,-21-3,-186 13,1 3,0 4,0 2,51 5,140-21,-26-3,-181 16,0 2,0 3,1 1,36 6,15-2,388-2,-319-20,163 9,-24 2,-193 11,205-3,-130-18,413 20,-401-22,172 21,-227-38,117-16,-115 30,57-36,13 17,-222 41,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,1 0,-2 0,1 0,0 0,0 0,-1 0,0 0,0 0,1 0,-2 0,1 0,0 1,0-1,-1 0,0 1,1-1,-1 1,0 0,0 0,-1-1,-1 0,-6-16,-128-214,90 93,2 30,-12-87,21 66,-1-61,-6 5,42 181,-3-16,0-1,2 0,1-1,0 1,2 0,0-1,3-9,-1-30,0 1,-4 0,-2 0,-2 0,-5-8,-26-86,38-229,-20 225,0-111,-2 68,22-433,-20 475,19-1004,0 778,-20 187,10 8,-6-31,-15-46,-8 57,20 39,0 19,-19 22,-2-24,2-113,39 37,-20 136,19 92,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 1,-1-1,0 1,-2-1,-132 37,33-1,-134 18,25-25,1 18,24-10,-145 19,37-35,-37 1,-4516-21,4658-18,-553 18,522-19,-478 21,484-21,-453 21,479-21,-105 9,65-11,42 15,147 9,-1-3,0-1,1-2,0-2,0-2,-185-8,88 14,-94-17,-123-20,-16 40,233-20,-70-2,-22 7,-13 3,65-2,7-6,-482 20,480-21,-749 21,750-21,-1559 21,1715-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12518.056">5870 3522,'0'-7,"0"0,1 0,0-1,0 1,0 1,1-1,0 0,1 0,-1 1,1-1,0 1,1 0,0 0,0 0,0 0,2-1,88-111,-29 20,-11 25,-19-44,-6 29,4-33,17 22,-47 95,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,0 1,-1 0,1-1,0 2,0-1,1 1,-1-1,0 2,0-1,1 0,-1 1,0 0,1 0,-1 1,0-1,0 1,1 0,-1 1,0-1,0 1,29 1,50-3,139 16,-220-15,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,-13 96,8-81,-1 0,-1 0,-1-1,0-1,-2 1,0-1,-12 13,-26 43,-20 67,23-51,0-9,-1 4,-37 66,-34-38,8 15,23-38,21-34,52-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12518.055">5870 3522,'0'-7,"0"0,1 0,0-1,0 1,0 1,1-1,0 0,1 0,-1 1,1-1,0 1,1 0,0 0,0 0,0 0,2-1,88-111,-29 20,-11 25,-19-44,-6 29,4-33,17 22,-47 95,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,0 1,-1 0,1-1,0 2,0-1,1 1,-1-1,0 2,0-1,1 0,-1 1,0 0,1 0,-1 1,0-1,0 1,1 0,-1 1,0-1,0 1,29 1,50-3,139 16,-220-15,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,-13 96,8-81,-1 0,-1 0,-1-1,0-1,-2 1,0-1,-12 13,-26 43,-20 67,23-51,0-9,-1 4,-37 66,-34-38,8 15,23-38,21-34,52-47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13666.488">7852 2694,'-1'290,"-18"-156,5-13,-3 66,9-90,8-81</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.968">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.967">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16049.046">9968 2829,'68'1,"-36"1,1-1,0-2,-1-1,1-2,-1-1,0-1,14-6,165-19,-30 9,-8 4,115 19,-191 18,76 2,-171-22,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 1,-2 12,0 0,-1 1,-1-2,-1 1,0 0,-1-1,0 0,-1-1,-1 0,-5 6,-114 122,58-89,-65 33,14-11,-43-10,69-39,83-21</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17176.699">10507 3022,'0'270,"-20"-97,21-139,0-18,0 0,-2-1,1 1,-2 0,0-1,-1 0,0 1,-2-1,1 0,-3 2,-25 217,1-151,23-58,0 0,-2-1,-1 0,-1-1,0-1,-10 12,-45 54,7 2,54-79,0 0,-1 0,0-1,0 0,-1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 0,-2 0,3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17176.698">10507 3022,'0'270,"-20"-97,21-139,0-18,0 0,-2-1,1 1,-2 0,0-1,-1 0,0 1,-2-1,1 0,-3 2,-25 217,1-151,23-58,0 0,-2-1,-1 0,-1-1,0-1,-10 12,-45 54,7 2,54-79,0 0,-1 0,0-1,0 0,-1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 0,-2 0,3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5008,7 +5521,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40624.774">3080 1733,'1'29,"0"-1,-1 0,0 0,-3 1,0-1,-2-1,0 1,-2-1,-11 26,-29 78,17-9,29-115,0-1,-1 0,0 0,0 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 1,0-2,-1 1,-4 4,-1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41887.526">3234 1772,'19'56,"-18"158,0-211,1 1,-1-1,1 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 0,1 1,-1-1,1 0,-1-1,1 1,2-1,24 4,102 27,-109-19,-14-8,-1 0,1 0,-1 1,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,-1 1,0-1,0 1,0 1,-1-1,0 1,-1-1,1 1,-2 1,1-1,-1 0,0 1,-1 0,0 0,-2-8,3 15,-2 1,0 0,-1 0,0-1,-2 1,0 0,0-1,-5 15,4-25,0 0,0 1,0-1,-1 0,0-1,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 0,0-1,0 1,-1-1,1-1,0 1,-1-1,0 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,0-1,0 0,0 0,0-1,-77-132,33 36,43 89</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43930.006">3427 1849,'-233'0,"812"0,-562 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="53503.722">10239 3446,'-1'-5,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,-35-69,27-272,5 135,44 94,-31 98,0 0,2 0,0 1,1 0,0 0,2 1,0 1,1 0,1 0,0 1,12-10,64-59,3 23,-17 20,58-11,-64 35,113-12,18 18,-34 4,-161 8,1 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,29 38,14 28,25 45,17 16,-12-15,20 46,-86-140,-1 0,-2 1,0 0,-1 0,-1 0,-1 0,-2 1,0 0,-2-1,-2 23,1 25,-39 62,1-36,-46 12,71-95,-1-1,-1-1,1-1,-2 0,0-1,0-1,-1-1,0 0,-1-2,0 0,0-1,-1-1,-3 0,-184 18,-100-24,116-54,-43-22,94 7,54 3,-27 1,101 55,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="53503.721">10239 3446,'-1'-5,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,-35-69,27-272,5 135,44 94,-31 98,0 0,2 0,0 1,1 0,0 0,2 1,0 1,1 0,1 0,0 1,12-10,64-59,3 23,-17 20,58-11,-64 35,113-12,18 18,-34 4,-161 8,1 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,29 38,14 28,25 45,17 16,-12-15,20 46,-86-140,-1 0,-2 1,0 0,-1 0,-1 0,-1 0,-2 1,0 0,-2-1,-2 23,1 25,-39 62,1-36,-46 12,71-95,-1-1,-1-1,1-1,-2 0,0-1,0-1,-1-1,0 0,-1-2,0 0,0-1,-1-1,-3 0,-184 18,-100-24,116-54,-43-22,94 7,54 3,-27 1,101 55,2 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="54264.327">10661 2753,'0'-3,"0"-4,0-5,4-3,0-3,0-1,-1-1,3 0,3 0,1 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="54854.51">11008 2580,'0'3,"0"5,0 4,0 3,-4 2,-3 2,-2 1,2 0,1 0,3 0,0 0,2 0,1-1,0 0,0-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="56016.159">10739 3138,'55'27,"106"58,-34-38,-114-43,0 0,1 0,-1-1,1-1,0 0,0-1,0 0,0-1,0-1,0 0,0-1,37 0,56-24,-94 21</inkml:trace>
@@ -5018,14 +5531,14 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="62658.959">13163 1811,'-289'0,"192"19,-29 0,140-46,2 17,1 1,0 0,0 1,1 0,0 2,1 0,-1 1,1 1,0 1,13 0,141-15,-172 18,0 0,0-1,0 1,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,0 0,0 1,0-1,-1 1,1 0,0-1,-1 1,1 0,0-1,-1 1,1 0,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,-35 42,18-24,10-6,3 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="63849.98">13510 1695,'126'8,"-169"4,-100-13,377 1,-218 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="64906.21">13182 2176,'52'19,"-48"-19,269 0,-267 0,1 0,-1-1,1 1,0-1,-1-1,0 0,1 0,-1 0,0 0,0-1,0 0,0 0,-1-1,1 0,-1 0,0 0,0 0,0-1,-1 0,0 0,1 0,-2 0,1-1,-1 0,0 0,0 0,0 0,-1-1,54-109,-51 104</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="66194.432">7737 2330,'0'86,"25"-127,-22 25,-2 17,-1-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,18 21,-7-13</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="66194.431">7737 2330,'0'86,"25"-127,-22 25,-2 17,-1-1,0 0,1 1,-1-1,0 0,1 1,-1-1,1 0,-1 0,0 0,1 1,-1-1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,1-1,-1 1,0 0,1-1,-1 1,0 0,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,0-1,0 1,0-1,18 21,-7-13</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="66782.384">8218 2407,'3'0,"5"-3,0-5,-1-4,-1-3,-2-2,-2 4,-1 9,0 7,-2 7,1 5,0 4,-1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="67496.495">7833 2695,'1'6,"0"0,0 0,0 0,1 0,0 0,0-1,1 1,-1-1,1 0,0 1,1-1,-1-1,1 1,0 0,0-1,0 0,1 0,0 0,0 0,0-1,0 0,0 0,4 1,24 19,89 45,-93-55,1-2,0-1,0-1,1-2,0 0,15-1,-34-7,1-1,-1 0,0-1,0 0,0-1,0 0,-1-1,1 0,-1-1,0 0,-1-1,3-2,-12 8,131-94,-30 8,-8 4,-87 74</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="107550.144">4215 6853,'-55'-19,"-141"18,193 0,0 0,0-1,0 1,0-1,0 0,1 1,-1-1,0 0,1-1,0 1,-1 0,1-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,1-1,-1-1,-9-21,-30-89,-23-90,54 29,11 108,-1-162,2 216,0 0,2 1,-1-1,2 1,0 0,0 0,1 1,1 0,0 0,1 1,3-4,25-38,79-44,-15 75,-36 16,-39 0,0 2,0 1,1 2,-1 0,1 2,15 2,-32 1,-1 0,1 0,-1 1,0 0,-1 1,1 0,-1 0,0 1,-1 0,1 0,3 7,-2-5,88 100,3 76,-64-102,-29-67,0-1,-1 1,-1 0,0 1,-1-1,-1 1,0 0,-2 0,0 0,0 0,-2 0,0 0,-1 0,-1 2,-38 112,-52-13,-34-55,116-59,-1-1,1 0,-1 0,0-1,1 0,-1-1,0-1,0 1,0-2,0 0,-4-1,-95 5,-5 54,103-52,1 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="109082.502">3889 5641,'-61'-34,"47"22,0-1,1 0,0-1,1 0,1-1,1 0,0-1,0 0,2-1,0 0,1 0,-3-13,-49-112,30 62,-9-33,12 31,-8-68,36-16,25 192,32 115,-56-128,1-2,1 0,-1 0,2 0,0 0,0-1,1 0,0 0,0-1,3 1,81 163,-33-51,6 6,-36-40,-23-75</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="110118.473">4158 5525,'18'-114,"3"-62,18-54,34-25,-8 128,-37 67,-21 93,3 134,0 38,-12-128,2 442,0-502</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="111680.484">4235 6603,'20'213,"-21"133,21-212,-21 483,21-483,-9 66,-10-193,4 9,-3-27,-3-357,1 352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.946">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.945">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="113307.215">4370 7314,'37'-51,"29"-53,79-112,-28 68,-17 17,-64 84,-28 44</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114064.699">4061 7950,'-30'82,"-37"67,-7-9,10-31,-7 28,-13 47,54-141,25-59,5 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114744.305">4042 8046,'232'1,"-39"68,-46 22,-81-43,120 85,-41-20,-122-94,-16-9</inkml:trace>
@@ -5038,7 +5551,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="128656.366">5178 5583,'3'-2,"1"1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,-1 0,1 0,-1 0,0 0,0 0,0 0,0-1,0 1,-1-1,1 1,-1-1,0 0,0 1,-1-1,1 0,-1-1,13-158,-5-79,28 163,-29 56,-2-1,-1 0,-1 0,0-1,-2 1,-2-23,20-107,-8 30,-3-33,-9 749,-18-419,19 250,0-421,0 1,0-1,-1 0,1 0,1 0,-1 1,0-1,0 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1-1,1 1,-1 0,1-1,0 0,-1 1,1-1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0-1,1 1,-1-1,0 0,0 0,0 0,1 0,-1 0,0 0,178 32,-174-28,-1 1,1 0,-1 0,0 0,0 1,-1 0,1 0,-1 0,0 0,-1 1,0-1,0 1,0 0,-1 0,0 0,0 1,-1-1,1 3,3 10,63 178,-40-91,8 48,3-39,-20 135,-19-218,1-22,0 1,-1-1,-1 0,0 0,0 0,-1 0,0 0,-1 0,-1 0,1 0,-2-1,-60 90,52-91,-1 0,-1-2,1 0,-1 0,0-1,-1-1,1-1,-1 0,0-1,0-1,0 0,-1-1,1-1,0 0,0-2,-10-1,-22 2,32 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="129473.723">4947 5987,'0'-3,"0"-5,3 0,5 0,3 3,4-2,3 0,1 1,1 3,0 0,0 2,0 1,-1 0,1 0,0 0,-1 0,-3 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="130059.731">5043 6103,'3'0,"5"0,4 0,3 0,2 3,2 1,1 0,0 0,0-2,-3-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="130633.412">4966 6487,'52'19,"-49"-19,250 0,-236 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="130633.411">4966 6487,'52'19,"-49"-19,250 0,-236 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="135474.082">2233 4062,'48'-27,"-22"19,0 1,0 1,0 2,1 0,0 2,-1 1,1 1,4 1,-5-1,-16-1,0 1,0 0,0 0,-1 1,1 1,0-1,-1 1,1 1,-1 0,0 0,0 1,1 1,-7-4,1 0,0 1,-1-1,1 1,-1 0,0 0,1 0,-1 1,0-1,0 1,-1-1,1 1,0 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,0 0,0-1,-1 1,1 0,-1 0,1 0,-1 0,-1 0,1-1,0 1,-1 0,0 0,0 0,0-1,0 1,-1 0,1-1,-1 1,0-1,0 0,0 1,-1-1,1 0,-1 0,1-1,-1 1,0-1,0 1,0-1,-1 0,-1 1,-92 45,-34 25,122-68,1 0,0 0,1 1,0 0,-1 0,2 1,-1 0,1 0,0 1,1 0,0-1,0 2,0-1,1 1,1-1,-1 1,1 0,1 1,0-1,0 0,1 1,0-1,0 0,1 1,1-1,-1 1,2 3,72 68,-52-63,-14-9</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="136082.18">2464 4852,'0'0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="137955.917">5139 3658,'42'-53,"-36"45,0 1,0 0,1 1,0 0,1 0,-1 0,1 1,0 0,0 0,1 1,-1 0,1 1,0-1,0 2,1-1,-1 2,0-1,1 1,-1 0,1 1,-1 0,0 1,10 1,-5-2,1 0,1 0,-1 1,0 0,0 1,0 1,-1 0,1 1,-1 1,6 2,117 83,-94-33,-38-46,-1-1,-1 1,0 0,0 0,-1 0,-1 0,0 1,0-1,-1 0,0 1,-1-1,-1 0,1 0,-4 9,4-14,0 0,0-1,0 1,-1 0,0-1,0 1,-1-1,1 0,-1 0,0 0,-1 0,1-1,-1 1,0-1,0 0,0 0,-1 0,1 0,-1-1,0 0,0 0,0 0,-1-1,1 1,-2-1,-150 40,152-41,-1 0,0 1,0 0,1 0,-1 0,1 1,-1-1,1 2,0-1,0 0,1 1,-1 0,1 0,0 0,0 1,0-1,0 1,1 0,0 0,-1 3,-8 17,8-11</inkml:trace>
@@ -5140,12 +5653,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39981.608">22378 1422,'2'8,"-1"-1,1 0,0 0,0 0,1 0,0-1,0 1,1-1,0 1,0-1,0 0,1-1,0 1,0-1,0 0,0 0,1 0,0-1,1 0,10 12,58 56,36 52,-22-36,-67-72,-14-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="67245.267">7236 3096,'-2'-2,"0"1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,1 0,-1-1,0-1,0 1,0-193,5 173,1 1,1-1,0 1,2 0,1 1,0 0,2 1,5-8,1-4,-8 15,1 1,0 0,1 0,0 1,2 1,0 0,0 1,1 1,3-2,162-79,-139 77,-19 7,0 0,1 2,0 0,0 2,0 1,0 0,20 1,92 4,-128 2,1 0,0 0,-1 0,0 1,0 0,0 1,0-1,-1 1,0 1,0-1,0 1,0 0,-1 0,0 1,-1 0,1-1,-1 2,0 0,136 243,-81-87,-55-150,0 0,-1-1,-1 1,0 1,0-1,-2 0,0 0,0 0,-2 5,7 92,0-77,0-1,-2 1,-2 0,-1 0,-3 28,-1-51,0 1,0-1,-2 0,1 0,-1-1,-1 0,1 0,-2 0,1-1,-2 0,1 0,-1-1,-1 0,-8 11,7-10,0-2,0 1,0-2,-1 1,0-2,-1 0,1 0,-1-1,0 0,0-1,-5 0,-29 9,-127 13,-75-15,152-12,88 2,0 0,0-1,0 0,0 0,0-1,0 0,1 0,-1-1,1-1,-1 1,1-1,0 0,0-1,1 0,0 0,0-1,0 0,0 0,1-1,0 1,0-2,0-1,-129-182,65 86,3-11,-16-37,61 91,-17-107,39 130,0 23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="68126.783">7678 3462,'0'18,"-1"0,0 0,-1-1,-1 1,0-1,-2 1,0-1,0 0,-2-1,0 1,-4 4,-40 126,12-47,-49 130,43-60,-7-22,-21 41,27 40,8 59,20-162,17-190,1 46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="68649.913">7255 4193,'0'-6,"0"-1,-1 0,1 1,-1-1,-1 1,1-1,-1 1,0 0,-1 0,0-1,0 2,0-1,0 0,-1 1,-3-4,-18-35,21 37,1 0,-1 0,0 0,-1 0,0 1,0-1,0 1,-1 0,1 1,-1-1,-1 1,1 1,-1-1,0 1,0 0,-290-185,143 77,49 26,98 76</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="68649.912">7255 4193,'0'-6,"0"-1,-1 0,1 1,-1-1,-1 1,1-1,-1 1,0 0,-1 0,0-1,0 2,0-1,0 0,-1 1,-3-4,-18-35,21 37,1 0,-1 0,0 0,-1 0,0 1,0-1,0 1,-1 0,1 1,-1-1,-1 1,1 1,-1-1,0 1,0 0,-290-185,143 77,49 26,98 76</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="69321.359">7274 4212,'52'-18,"-49"18,120-16,-59 10,55-17,57-3,0-16,-41 23,75-31,16-4,84-10,-95 35,-33-9,19 27,79 2,-173 11,413-2,-504 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="71819.624">9429 3731,'2'-4,"-1"0,1 0,-1-1,1 1,0 0,1 1,-1-1,1 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,1 0,2 0,13-7,64-35,27 1,-68 31,-13 5,1 1,-1 1,1 2,0 1,0 2,0 1,4 1,100 17,-116-21,-16 0,0 1,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,0 1,70 90,-37-40,12 32,-5 104,-4-54,-37-128,0-1,0 1,0 0,-1-1,0 1,-1 0,1-1,-1 1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0 0,0-1,0 1,0-1,-1-1,1 1,-5 1,-20 3,-1-2,0-1,-1-2,1 0,-1-3,1 0,-12-3,-40 1,-34-35,10-45,95 71,-26-24,30 29,1 0,0 0,0 0,0-1,1 0,0-1,0 1,1-1,0 0,0-1,1 1,0-1,1 0,-111-217,59 74,24 41,24 92,2 0,0 0,2 0,0 0,1-1,0 1,2-1,0 1,3-14,-1-24,-2 45,2 0,0 0,0 0,1 1,0-1,1 1,1 0,0 0,0 0,1 0,0 1,-3 4,4-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="73432.31">7024 5000,'0'11,"0"-1,-1 0,0 0,0 0,-1 0,-1 0,1-1,-2 1,1-1,-1 1,-1-1,0 0,0-1,-1 1,0-1,0 0,-1 0,-2 2,-20 21,-65 51,5-28,-46 26,-104 16,-148 81,219-90,68-41,-72 12,144-48,1 2,1 1,0 1,1 1,0 1,-3 5,17-13,3 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="74379.381">7062 5020,'2'8,"0"0,0-1,1 1,0 0,0-1,1 1,0-1,0 0,1 0,0-1,0 1,0-1,2 1,18 25,77 91,52 118,-65-117,155 149,-84-134,18 10,-162-138,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="79821.413">9679 2770,'7'1,"0"1,-1 0,1 0,-1 1,0 0,1 0,-2 1,1-1,0 1,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 1,3 4,40 38,91 64,-87-69,-40-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="79821.412">9679 2770,'7'1,"0"1,-1 0,1 0,-1 1,0 0,1 0,-2 1,1-1,0 1,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 1,3 4,40 38,91 64,-87-69,-40-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="80518.491">10045 2789,'-116'57,"5"2,14 21,88-72</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="89505.281">11987 3847,'8'1,"-1"0,-1 1,1 0,0 1,0-1,-1 1,1 0,-1 1,0 0,0 0,0 0,-1 0,1 1,-1 0,0 0,3 5,48 37,62 64,-19 2,-51-27,-10 11,21 101,-25-27,4 2,-14-44,-19-113,-1 1,-1-1,0 1,-1 0,0 0,-2 0,0 0,-1-1,-2 12,1 31,-10 122,-7-55,-13 4,-6-18,-3 50,32-140,0 1,1 0,2 0,0 0,2 1,0 0,2 0,0 0,2 0,1 0,1 4,-5 110,-12-76,12-48</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="90563.928">12122 5866,'38'56,"73"144,-51-106,-23-34,37 76,-72-133,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,1-1,-1 0,0 1,0-1,1-1,-1 1,1 0,-1-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,0 0,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,1 1,0-1,120-62,-7-5,12 17,-106 38,-12 8</inkml:trace>
@@ -5159,7 +5672,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="190346.236">2271 3462,'-19'-114,"18"-427,1 136,21 271,-21-212,0 344,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,1 1,83 15,-78-13,166 40,-170-43,-1-1,1 1,-1-1,1 1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,1 0,-1-1,0 1,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,1-1,-4 385,3-119,3-265,0 1,-1-1,1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0 1,1-2,-1 1,1-1,-1 1,1-1,0 0,-1-1,1 1,0-1,0 0,0 0,1-1,-1 0,9 4,82 30,67 12,-128-37,0-3,0 0,0-2,0-2,1-1,15-3,-47 0,-1 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,-1 1,1-1,0 0,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,-2-3,3-48,33-125,-31 120,-3 48,1-1,0 0,1 1,0-1,1 0,1 1,-1 0,2-1,-1 1,4-4,-2 10,1 0,0 0,1 1,-1 0,1 0,-1 1,1 0,0 0,0 0,1 1,-1 0,1 0,-1 1,1 0,-1 1,1-1,-1 1,1 1,-1 0,1 0,-1 0,1 1,1 0,-6 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0-1,-1 1,0 0,1-1,-1 1,-1 0,1-1,0 1,-1 0,4 26,27 76,-27-97,1 0,-2 0,1 1,-1-1,0 0,-1 1,0 0,-1-1,0 1,0 0,-2 6,2 40,2-51,0 0,1 0,0 0,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,0-1,-1 1,1-1,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,1-1,-1 0,1 0,-1 0,41 10,82 46,-111-49,-15-5,0 0,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-2,-3-210,21-36,-9 30,17 76,36 53,-59 88,0-1,0 0,0 1,1 0,-1 1,1-1,-1 1,1 0,0 0,0 1,0-1,0 1,0 1,0-1,1 1,0 0,30-5,140-47,-166 47,1 0,-1 0,1 1,0 1,0 0,0 0,1 1,-1 1,1 0,-1 0,1 2,-1-1,0 2,1 0,-1 0,0 1,0 0,0 1,0 1,-1 0,0 0,4 3,-1 7,0 0,-1 1,0 0,-2 1,0 0,0 1,-2 0,0 1,-2 0,4 12,3 3,13 144,-19-85,12 36,-14-108,0 0,-2 1,0-1,-2 1,0 0,-2 0,0 0,-1 0,-2 2,1 47,2-48,1-1,-1 0,-1 0,-1 0,0 0,-2-1,-1 1,-5 13,-22 139,28-147,-2 0,-1 0,-2 0,0-1,-2 0,-10 18,-37 111,-17 20,44-33,31-137,-1 0,1 1,-1-1,-1 0,1-1,0 1,-1 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,1 0,-1-1,-2 0,-266-2,-362 1,520-19,-38-20,143 39,0 0,0-1,0-1,1 0,-1 0,0-1,1 0,0-1,0 0,0 0,0-1,0 0,0-1,-121-36,-71 22,-11-12,-18 33,96-21,-2 9,118 8,-53-28,59 16,-21-59,32 51,-17-51,-15-36,23 51,6 47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="192624.686">2656 2077,'-202'-12,"92"3,-26-8,13-24,26-4,16-46,22-42,39-39,20 150,-1 17,0-1,0 1,1-1,0 0,0 1,0-1,1 1,0-1,0 1,0 0,1-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,1 0,0 0,0 0,2-2,103-39,27 8,56 17,213 21,-395-1,0 0,0 0,1 1,-1 1,0 0,0 0,0 1,0 0,-1 1,1 0,-1 1,0 0,0 0,-1 0,7 6,67 79,-75-80,0 1,0-1,-1 1,0 0,-1 1,0-1,-1 1,0 0,-1 0,-1 0,0 1,0-1,-1 0,-1 1,0-1,0 1,-2-1,1 1,-2-1,1 0,-2 0,0 0,0 0,-2 2,-7 5,2 0,-1-1,-1 0,-1-1,0 0,-1-1,-1-1,0-1,-1 0,-8 4,-107 91,-4-26,41-33,-2-13,82-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="193822.627">3368 2384,'0'-32,"1"16,-1-1,0 0,-1 1,-1-1,0 0,-1 1,-1 0,-1-1,-4-9,4 10,1 0,0-1,1 0,1 1,1-1,0 0,1 0,1 0,2-11,-1-30,-1 52,-1 1,1 0,0-1,0 1,0 0,1 0,0 0,0 0,0 0,0 0,1 1,0-1,0 1,0 0,0 0,1 0,0 0,0 0,0 1,0-1,0 1,1 1,-1-1,1 0,0 1,0 0,0 0,0 1,0-1,0 1,3 0,173-15,-179 16,56-8,-53 6,-1 1,1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,0 1,0-1,-1 1,1 0,0 0,3 3,1 3,-1 0,0 0,-1 1,0 1,-1-1,1 1,-2 0,0 0,0 1,0 0,-2 0,1 0,-1 0,-1 0,0 1,0 3,0-4,0 0,-1-1,0 1,-1 0,0 0,-1 0,0-1,-1 1,0 0,0-1,-1 1,-1-1,0 0,0 0,-1 0,0-1,-1 0,0 0,0 0,-1 0,0-1,-2 1,-115 87,6-20,4-7,99-64</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="195089.881">4696 2096,'-72'-21,"18"4,46 16,0 0,0-1,0-1,1 1,-1-1,1-1,0 1,0-1,0 0,0-1,0 0,1 0,0 0,0-1,1 1,-1-2,-1-2,-35-53,26 41,0-1,2-1,1 0,1-1,0 0,2-1,-3-12,-35-87,6 10,37 97,1 0,1 0,0-1,1 1,1-1,1 0,0 1,1-1,1-2,1-40,-4 50,1 1,1 0,-1-1,2 1,-1-1,1 1,1 0,-1 0,1 0,1 0,0 1,0-1,1 1,0 0,0 0,5-4,78-69,-53 64,2 1,0 3,0 1,2 1,-1 3,1 1,0 1,1 3,-1 1,1 2,-1 1,3 3,32-4,58 42,-13 20,41 39,-67-20,-59-54,36 45,7 82,-69-124,-1 1,-2-1,-1 1,-1 0,-2 1,-1-1,-1 2,1-30,0 1,0 7,1 1,-1 0,-1 0,0 0,-1-1,0 1,-1 0,-1-1,1 0,-2 0,1 0,-6 8,-53 109,-27-22,73-95,0 0,-1-1,-1-1,0 0,0-2,0 0,-1-1,0-1,-3 0,16-3,-110 38,-134-20,-57-21,155-37,137 37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="195089.88">4696 2096,'-72'-21,"18"4,46 16,0 0,0-1,0-1,1 1,-1-1,1-1,0 1,0-1,0 0,0-1,0 0,1 0,0 0,0-1,1 1,-1-2,-1-2,-35-53,26 41,0-1,2-1,1 0,1-1,0 0,2-1,-3-12,-35-87,6 10,37 97,1 0,1 0,0-1,1 1,1-1,1 0,0 1,1-1,1-2,1-40,-4 50,1 1,1 0,-1-1,2 1,-1-1,1 1,1 0,-1 0,1 0,1 0,0 1,0-1,1 1,0 0,0 0,5-4,78-69,-53 64,2 1,0 3,0 1,2 1,-1 3,1 1,0 1,1 3,-1 1,1 2,-1 1,3 3,32-4,58 42,-13 20,41 39,-67-20,-59-54,36 45,7 82,-69-124,-1 1,-2-1,-1 1,-1 0,-2 1,-1-1,-1 2,1-30,0 1,0 7,1 1,-1 0,-1 0,0 0,-1-1,0 1,-1 0,-1-1,1 0,-2 0,1 0,-6 8,-53 109,-27-22,73-95,0 0,-1-1,-1-1,0 0,0-2,0 0,-1-1,0-1,-3 0,16-3,-110 38,-134-20,-57-21,155-37,137 37</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -5791,10 +6304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743360CA-68AC-4B8B-9F47-FA08841F4764}">
-  <dimension ref="A2:C89"/>
+  <dimension ref="A2:C97"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5884,15 +6397,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -5900,7 +6410,10 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -5908,7 +6421,7 @@
         <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -5916,7 +6429,7 @@
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
@@ -5924,7 +6437,7 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -5932,7 +6445,7 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
@@ -5940,7 +6453,7 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -5948,23 +6461,23 @@
         <v>109</v>
       </c>
       <c r="B20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="B22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -5972,7 +6485,7 @@
         <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
@@ -5980,7 +6493,7 @@
         <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
@@ -5988,7 +6501,7 @@
         <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -5996,7 +6509,7 @@
         <v>110</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
@@ -6004,7 +6517,7 @@
         <v>110</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
@@ -6012,36 +6525,36 @@
         <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>110</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B33" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
@@ -6049,44 +6562,44 @@
         <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>164</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
@@ -6094,52 +6607,52 @@
         <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A48" t="s">
-        <v>115</v>
-      </c>
-      <c r="B48" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>115</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
@@ -6147,186 +6660,244 @@
         <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>124</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B57" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B58" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
-        <v>122</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B61" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A62" t="s">
-        <v>125</v>
+      <c r="B62" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A63" t="s">
-        <v>129</v>
-      </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B68" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B69" t="s">
-        <v>108</v>
+      <c r="A69" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>129</v>
+      </c>
       <c r="B70" t="s">
-        <v>126</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
-        <v>127</v>
-      </c>
       <c r="B72" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>130</v>
-      </c>
       <c r="B73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>111</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B76" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>43</v>
+      <c r="B77" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>44</v>
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A84" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A86" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A87" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A89" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
         <v>59</v>
       </c>
     </row>
@@ -6437,8 +7008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2218A11C-5C97-478B-9171-39E15B586A06}">
   <dimension ref="A1:K64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7172,4 +7743,148 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3D4BDC-398D-456D-A78E-437EF538BC67}">
+  <dimension ref="D2:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="2" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+      <c r="I15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
+        <v>150</v>
+      </c>
+      <c r="H25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikenaga0605\Desktop\Git - コピー\02Ikenaga\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478851A3-D8DB-44F6-94E5-A9200373FDF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11778B6C-DD35-4ED1-BF5F-932C5878C3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="5" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
   </bookViews>
   <sheets>
     <sheet name="各シーンの完成図" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="179">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1141,22 +1141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・レベル100では鬼狩りモードで相手に近づくと強力</t>
-    <rPh sb="9" eb="11">
-      <t>オニガ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・レベル100では野獣の本性で発動すると攻撃があがりジャンプで範囲攻撃ができる</t>
     <rPh sb="9" eb="11">
       <t>ヤジュウ</t>
@@ -1350,6 +1334,153 @@
   </si>
   <si>
     <t>カメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低</t>
+    <rPh sb="0" eb="1">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラ選択画面</t>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア画面</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル100では鬼狩りモードで相手に近づくと強力</t>
+  </si>
+  <si>
+    <t>・レベル５で素早さが上がるスキルが使え,レベル10で攻撃範囲が広がるスキルが使えるようになる</t>
+    <rPh sb="6" eb="8">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル５で攻撃力が上がるスキルが使え,レベル10で範囲攻撃のスキルが使えるようになる</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※範囲攻撃は一回転しながら攻撃のイメージ</t>
+    <rPh sb="1" eb="3">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イッカイテン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・レベル５で範囲攻撃のスキルが使え,レベル10で空を飛ぶスキルが使えるようになる</t>
+    <rPh sb="6" eb="10">
+      <t>ハンイコウゲキ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※範囲攻撃は風のエフェクトで攻撃し空を飛ぶは高く飛べるようになる</t>
+    <rPh sb="1" eb="5">
+      <t>ハンイコウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソラ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4380,13 +4511,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>28351</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>205740</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4894,7 +5025,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="80297.267">4675 1612,'0'5,"1"10,-1 0,0 0,-1 1,-1-1,0-1,-1 1,-1 0,0-1,-1 1,-1-1,-6 12,-3 3,15-27,-1 1,0-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 0,-2 0,-178 10,-155 9,11-11,153 11,-94-20,262 0,1 0,-1 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,-1-2,0 1,-112-61,113 62,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 1,0-1,0 1,0 0,0 0,0 1,0-1,-1 2,1-1,0 1,-1 0,1 0,-5 1,-8-1,2 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="82225.461">2905 1612,'790'0,"-617"20,251-21,-639 21,-536-21,1004 13,164 7,-302-11,-1088-8,823 19,74-19,309 7,-20 18,97-16,-186-11,222 2,-751 0,314 15,137-10,222-6,-313 16,-36-10,63-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88381.481">2866 1997,'0'539,"0"-522</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.943">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.942">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91427.537">3039 2093,'597'0,"-580"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179163.202">5425 5729,'-34'-59,"18"41,-1 1,0 0,-1 2,-1 0,-1 1,-16-9,-45-43,-27-3,12 4,-78-31,36-4,130 94,0 1,1-1,-1-1,1 0,1 0,-1 0,1 0,0-1,1 0,0-1,0 1,1-1,0 0,-2-7,2 8,0 0,0 0,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 1,0 0,0 1,0 0,-1 0,1 0,-8-2,-11-10,-80-65,-64-9,95 38,-8 3,24 13,46 32</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180420.482">4136 4363,'-327'1,"210"19,115-21,-1 1,0 0,0-1,0 2,0-1,0 0,0 0,0 1,0 0,1 0,-1-1,0 2,0-1,1 0,-1 0,1 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,1 0,0-1,0 1,-1 0,2-1,-1 1,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,1 2,-1 6,0 0,0 1,2-1,-1 0,1 0,1 0,0 0,1 0,0-1,0 1,1-1,1 0,-1 0,2-1,-1 0,1 0,1 0,28 48,25 22,16-21,-35-24,-32-28</inkml:trace>
@@ -5255,7 +5386,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27216.361">6563 2938,'-1'-328,"-18"174,0-20,19-499,59 346,-52 291,-7 36,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,21 84,55 147,-47-99,6-21,-17 6,-1 0,1 0,40 115,-4-18,-53-198</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="28270.605">7524 2745,'47'-94,"-30"69,58-68,25-41,53-51,-40 25,-11 3,-73 100,89-104,72-83,-189 243,-1 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,26 222,-17-9,-12-133,-13 114,-9-63,-21 36,16-62,-43 125,60-167,8-53</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29244.182">8352 2842,'-3'17,"0"1,-2-1,0 0,0 0,-2 0,0-1,-1 0,-1 0,-7 10,7-10,-57 99,-2 0,21-26,41-78</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.722">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.721">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="60999.584">2117 3784,'-30'56,"-3"77,28-117,0 1,2 0,0 1,1-1,1 0,1 1,0-1,1 1,1 4,1 37,-3 191,19-135,31 47,-15-23,4-25,-17-79,-17-23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="62503.804">2849 3727,'22'82,"-17"-38,26 157,-12-27,-20 153,0-317,0 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-2 0,1-1,-1 0,-1 0,-27 46,-75 102,38-107,5-1,56-40,-1-1,0 0,0-1,0 0,0-1,-1 0,0-1,0 0,-1-1,1 0,-13 0,-110 39,28-18,105-25,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 1,1-2,-5-18,-2 6,0 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="68867.286">1983 4093,'-44'-39,"-63"-5,15-18,-109-44,41 34,5-11,24 11,20-2,-16 0,75 30,-79-13,68 30,62 28,-1 0,1 0,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 1,1-1,90 152,-33-55,-52-93,-1 0,1 1,-1 0,0 0,-1 1,1-1,-1 1,-1 0,1 1,-1-1,-1 1,1 0,1 5,94 100,-9-29,5 29,-15-30,38 47,-114-125,0-1,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,1-1,-1 1,1-1,-1 0,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,0-1,0 1,-1-1,1 0,4-1,72 6,40 27,-2 23,4 15,-9-12,-104-52</inkml:trace>
@@ -5441,9 +5572,9 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">194 58,'19'56,"25"141,-28-27,-8-26,2 74,-12-134,3 163,18-99,-19 1068,0 621,-21-1630,10 82,-8-116,10 40,12-178,-3 0,0 0,-3 0,-1 0,-1 0,-7 19,3-21,1 1,1 0,2 0,1 0,2 1,2 16,-12 129,-35 41,28-65,0-14,-20 101,20-70,0-20,8 87,8-218,1 1,0-1,2 1,0 0,2-1,0 1,2-1,2 7,-1 4,53 141,-37-60,43 98,-60-206,1 1,0-1,0 0,0-1,0 1,1-1,0 0,0-1,1 1,-1-1,1 0,0-1,0 0,0 0,0 0,1-1,-1 0,1 0,-1-1,1 0,0-1,-1 1,1-1,0-1,-1 0,1 0,6-2,74 9,51 21,24-11,113 18,109-7,19 21,-39-27,-220-10,0-6,33-8,-10 1,497 3,-340 19,366-20,-214 39,252-40,-413 21,161-2,157-18,-351 20,784-21,-825 22,162-11,-67-2,-168-28,566 21,-562-25,7 7,-23-1,25-1,29 0,70 5,-125-7,82 10,37-13,-21-3,-186 13,1 3,0 4,0 2,51 5,140-21,-26-3,-181 16,0 2,0 3,1 1,36 6,15-2,388-2,-319-20,163 9,-24 2,-193 11,205-3,-130-18,413 20,-401-22,172 21,-227-38,117-16,-115 30,57-36,13 17,-222 41,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,1 0,-2 0,1 0,0 0,0 0,-1 0,0 0,0 0,1 0,-2 0,1 0,0 1,0-1,-1 0,0 1,1-1,-1 1,0 0,0 0,-1-1,-1 0,-6-16,-128-214,90 93,2 30,-12-87,21 66,-1-61,-6 5,42 181,-3-16,0-1,2 0,1-1,0 1,2 0,0-1,3-9,-1-30,0 1,-4 0,-2 0,-2 0,-5-8,-26-86,38-229,-20 225,0-111,-2 68,22-433,-20 475,19-1004,0 778,-20 187,10 8,-6-31,-15-46,-8 57,20 39,0 19,-19 22,-2-24,2-113,39 37,-20 136,19 92,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 1,-1-1,0 1,-2-1,-132 37,33-1,-134 18,25-25,1 18,24-10,-145 19,37-35,-37 1,-4516-21,4658-18,-553 18,522-19,-478 21,484-21,-453 21,479-21,-105 9,65-11,42 15,147 9,-1-3,0-1,1-2,0-2,0-2,-185-8,88 14,-94-17,-123-20,-16 40,233-20,-70-2,-22 7,-13 3,65-2,7-6,-482 20,480-21,-749 21,750-21,-1559 21,1715-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12518.055">5870 3522,'0'-7,"0"0,1 0,0-1,0 1,0 1,1-1,0 0,1 0,-1 1,1-1,0 1,1 0,0 0,0 0,0 0,2-1,88-111,-29 20,-11 25,-19-44,-6 29,4-33,17 22,-47 95,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,0 1,-1 0,1-1,0 2,0-1,1 1,-1-1,0 2,0-1,1 0,-1 1,0 0,1 0,-1 1,0-1,0 1,1 0,-1 1,0-1,0 1,29 1,50-3,139 16,-220-15,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,-13 96,8-81,-1 0,-1 0,-1-1,0-1,-2 1,0-1,-12 13,-26 43,-20 67,23-51,0-9,-1 4,-37 66,-34-38,8 15,23-38,21-34,52-47</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12518.054">5870 3522,'0'-7,"0"0,1 0,0-1,0 1,0 1,1-1,0 0,1 0,-1 1,1-1,0 1,1 0,0 0,0 0,0 0,2-1,88-111,-29 20,-11 25,-19-44,-6 29,4-33,17 22,-47 95,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,0 1,-1 0,1-1,0 2,0-1,1 1,-1-1,0 2,0-1,1 0,-1 1,0 0,1 0,-1 1,0-1,0 1,1 0,-1 1,0-1,0 1,29 1,50-3,139 16,-220-15,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,-13 96,8-81,-1 0,-1 0,-1-1,0-1,-2 1,0-1,-12 13,-26 43,-20 67,23-51,0-9,-1 4,-37 66,-34-38,8 15,23-38,21-34,52-47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13666.488">7852 2694,'-1'290,"-18"-156,5-13,-3 66,9-90,8-81</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.967">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.966">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16049.046">9968 2829,'68'1,"-36"1,1-1,0-2,-1-1,1-2,-1-1,0-1,14-6,165-19,-30 9,-8 4,115 19,-191 18,76 2,-171-22,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 1,-2 12,0 0,-1 1,-1-2,-1 1,0 0,-1-1,0 0,-1-1,-1 0,-5 6,-114 122,58-89,-65 33,14-11,-43-10,69-39,83-21</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17176.698">10507 3022,'0'270,"-20"-97,21-139,0-18,0 0,-2-1,1 1,-2 0,0-1,-1 0,0 1,-2-1,1 0,-3 2,-25 217,1-151,23-58,0 0,-2-1,-1 0,-1-1,0-1,-10 12,-45 54,7 2,54-79,0 0,-1 0,0-1,0 0,-1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 0,-2 0,3 0</inkml:trace>
 </inkml:ink>
@@ -5521,7 +5652,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40624.774">3080 1733,'1'29,"0"-1,-1 0,0 0,-3 1,0-1,-2-1,0 1,-2-1,-11 26,-29 78,17-9,29-115,0-1,-1 0,0 0,0 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 1,0-2,-1 1,-4 4,-1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41887.526">3234 1772,'19'56,"-18"158,0-211,1 1,-1-1,1 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 0,1 1,-1-1,1 0,-1-1,1 1,2-1,24 4,102 27,-109-19,-14-8,-1 0,1 0,-1 1,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,-1 1,0-1,0 1,0 1,-1-1,0 1,-1-1,1 1,-2 1,1-1,-1 0,0 1,-1 0,0 0,-2-8,3 15,-2 1,0 0,-1 0,0-1,-2 1,0 0,0-1,-5 15,4-25,0 0,0 1,0-1,-1 0,0-1,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 0,0-1,0 1,-1-1,1-1,0 1,-1-1,0 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,0-1,0 0,0 0,0-1,-77-132,33 36,43 89</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43930.006">3427 1849,'-233'0,"812"0,-562 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="53503.721">10239 3446,'-1'-5,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,-35-69,27-272,5 135,44 94,-31 98,0 0,2 0,0 1,1 0,0 0,2 1,0 1,1 0,1 0,0 1,12-10,64-59,3 23,-17 20,58-11,-64 35,113-12,18 18,-34 4,-161 8,1 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,29 38,14 28,25 45,17 16,-12-15,20 46,-86-140,-1 0,-2 1,0 0,-1 0,-1 0,-1 0,-2 1,0 0,-2-1,-2 23,1 25,-39 62,1-36,-46 12,71-95,-1-1,-1-1,1-1,-2 0,0-1,0-1,-1-1,0 0,-1-2,0 0,0-1,-1-1,-3 0,-184 18,-100-24,116-54,-43-22,94 7,54 3,-27 1,101 55,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="53503.72">10239 3446,'-1'-5,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,-35-69,27-272,5 135,44 94,-31 98,0 0,2 0,0 1,1 0,0 0,2 1,0 1,1 0,1 0,0 1,12-10,64-59,3 23,-17 20,58-11,-64 35,113-12,18 18,-34 4,-161 8,1 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,29 38,14 28,25 45,17 16,-12-15,20 46,-86-140,-1 0,-2 1,0 0,-1 0,-1 0,-1 0,-2 1,0 0,-2-1,-2 23,1 25,-39 62,1-36,-46 12,71-95,-1-1,-1-1,1-1,-2 0,0-1,0-1,-1-1,0 0,-1-2,0 0,0-1,-1-1,-3 0,-184 18,-100-24,116-54,-43-22,94 7,54 3,-27 1,101 55,2 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="54264.327">10661 2753,'0'-3,"0"-4,0-5,4-3,0-3,0-1,-1-1,3 0,3 0,1 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="54854.51">11008 2580,'0'3,"0"5,0 4,0 3,-4 2,-3 2,-2 1,2 0,1 0,3 0,0 0,2 0,1-1,0 0,0-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="56016.159">10739 3138,'55'27,"106"58,-34-38,-114-43,0 0,1 0,-1-1,1-1,0 0,0-1,0 0,0-1,0-1,0 0,0-1,37 0,56-24,-94 21</inkml:trace>
@@ -5538,7 +5669,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="109082.502">3889 5641,'-61'-34,"47"22,0-1,1 0,0-1,1 0,1-1,1 0,0-1,0 0,2-1,0 0,1 0,-3-13,-49-112,30 62,-9-33,12 31,-8-68,36-16,25 192,32 115,-56-128,1-2,1 0,-1 0,2 0,0 0,0-1,1 0,0 0,0-1,3 1,81 163,-33-51,6 6,-36-40,-23-75</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="110118.473">4158 5525,'18'-114,"3"-62,18-54,34-25,-8 128,-37 67,-21 93,3 134,0 38,-12-128,2 442,0-502</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="111680.484">4235 6603,'20'213,"-21"133,21-212,-21 483,21-483,-9 66,-10-193,4 9,-3-27,-3-357,1 352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.945">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.944">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="113307.215">4370 7314,'37'-51,"29"-53,79-112,-28 68,-17 17,-64 84,-28 44</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114064.699">4061 7950,'-30'82,"-37"67,-7-9,10-31,-7 28,-13 47,54-141,25-59,5 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114744.305">4042 8046,'232'1,"-39"68,-46 22,-81-43,120 85,-41-20,-122-94,-16-9</inkml:trace>
@@ -5653,12 +5784,12 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="39981.608">22378 1422,'2'8,"-1"-1,1 0,0 0,0 0,1 0,0-1,0 1,1-1,0 1,0-1,0 0,1-1,0 1,0-1,0 0,0 0,1 0,0-1,1 0,10 12,58 56,36 52,-22-36,-67-72,-14-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="67245.267">7236 3096,'-2'-2,"0"1,1-1,-1 1,0-1,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,-1-1,1 1,0 0,-1-1,1 1,1 0,-1-1,0-1,0 1,0-193,5 173,1 1,1-1,0 1,2 0,1 1,0 0,2 1,5-8,1-4,-8 15,1 1,0 0,1 0,0 1,2 1,0 0,0 1,1 1,3-2,162-79,-139 77,-19 7,0 0,1 2,0 0,0 2,0 1,0 0,20 1,92 4,-128 2,1 0,0 0,-1 0,0 1,0 0,0 1,0-1,-1 1,0 1,0-1,0 1,0 0,-1 0,0 1,-1 0,1-1,-1 2,0 0,136 243,-81-87,-55-150,0 0,-1-1,-1 1,0 1,0-1,-2 0,0 0,0 0,-2 5,7 92,0-77,0-1,-2 1,-2 0,-1 0,-3 28,-1-51,0 1,0-1,-2 0,1 0,-1-1,-1 0,1 0,-2 0,1-1,-2 0,1 0,-1-1,-1 0,-8 11,7-10,0-2,0 1,0-2,-1 1,0-2,-1 0,1 0,-1-1,0 0,0-1,-5 0,-29 9,-127 13,-75-15,152-12,88 2,0 0,0-1,0 0,0 0,0-1,0 0,1 0,-1-1,1-1,-1 1,1-1,0 0,0-1,1 0,0 0,0-1,0 0,0 0,1-1,0 1,0-2,0-1,-129-182,65 86,3-11,-16-37,61 91,-17-107,39 130,0 23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="68126.783">7678 3462,'0'18,"-1"0,0 0,-1-1,-1 1,0-1,-2 1,0-1,0 0,-2-1,0 1,-4 4,-40 126,12-47,-49 130,43-60,-7-22,-21 41,27 40,8 59,20-162,17-190,1 46</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="68649.912">7255 4193,'0'-6,"0"-1,-1 0,1 1,-1-1,-1 1,1-1,-1 1,0 0,-1 0,0-1,0 2,0-1,0 0,-1 1,-3-4,-18-35,21 37,1 0,-1 0,0 0,-1 0,0 1,0-1,0 1,-1 0,1 1,-1-1,-1 1,1 1,-1-1,0 1,0 0,-290-185,143 77,49 26,98 76</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="68649.911">7255 4193,'0'-6,"0"-1,-1 0,1 1,-1-1,-1 1,1-1,-1 1,0 0,-1 0,0-1,0 2,0-1,0 0,-1 1,-3-4,-18-35,21 37,1 0,-1 0,0 0,-1 0,0 1,0-1,0 1,-1 0,1 1,-1-1,-1 1,1 1,-1-1,0 1,0 0,-290-185,143 77,49 26,98 76</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="69321.359">7274 4212,'52'-18,"-49"18,120-16,-59 10,55-17,57-3,0-16,-41 23,75-31,16-4,84-10,-95 35,-33-9,19 27,79 2,-173 11,413-2,-504 0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="71819.624">9429 3731,'2'-4,"-1"0,1 0,-1-1,1 1,0 0,1 1,-1-1,1 0,0 1,0-1,0 1,0 0,0 0,1 0,-1 0,1 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,1 0,2 0,13-7,64-35,27 1,-68 31,-13 5,1 1,-1 1,1 2,0 1,0 2,0 1,4 1,100 17,-116-21,-16 0,0 1,0-1,1 1,-1 0,0 0,0 0,1 0,-1 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 1,0-1,-1 1,1 0,0 0,-1 0,1 0,-1 0,0 1,70 90,-37-40,12 32,-5 104,-4-54,-37-128,0-1,0 1,0 0,-1-1,0 1,-1 0,1-1,-1 1,0 0,-1-1,0 1,0-1,0 0,-1 0,0 0,0 0,0 0,-1 0,0-1,0 0,0 0,-1 0,0 0,0-1,0 1,0-1,-1-1,1 1,-5 1,-20 3,-1-2,0-1,-1-2,1 0,-1-3,1 0,-12-3,-40 1,-34-35,10-45,95 71,-26-24,30 29,1 0,0 0,0 0,0-1,1 0,0-1,0 1,1-1,0 0,0-1,1 1,0-1,1 0,-111-217,59 74,24 41,24 92,2 0,0 0,2 0,0 0,1-1,0 1,2-1,0 1,3-14,-1-24,-2 45,2 0,0 0,0 0,1 1,0-1,1 1,1 0,0 0,0 0,1 0,0 1,-3 4,4-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="73432.31">7024 5000,'0'11,"0"-1,-1 0,0 0,0 0,-1 0,-1 0,1-1,-2 1,1-1,-1 1,-1-1,0 0,0-1,-1 1,0-1,0 0,-1 0,-2 2,-20 21,-65 51,5-28,-46 26,-104 16,-148 81,219-90,68-41,-72 12,144-48,1 2,1 1,0 1,1 1,0 1,-3 5,17-13,3 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br2" timeOffset="74379.381">7062 5020,'2'8,"0"0,0-1,1 1,0 0,0-1,1 1,0-1,0 0,1 0,0-1,0 1,0-1,2 1,18 25,77 91,52 118,-65-117,155 149,-84-134,18 10,-162-138,-2-1</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="79821.412">9679 2770,'7'1,"0"1,-1 0,1 0,-1 1,0 0,1 0,-2 1,1-1,0 1,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 1,3 4,40 38,91 64,-87-69,-40-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="79821.411">9679 2770,'7'1,"0"1,-1 0,1 0,-1 1,0 0,1 0,-2 1,1-1,0 1,-1 1,1-1,-1 1,0 0,-1 0,1 0,-1 1,3 4,40 38,91 64,-87-69,-40-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="80518.491">10045 2789,'-116'57,"5"2,14 21,88-72</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="89505.281">11987 3847,'8'1,"-1"0,-1 1,1 0,0 1,0-1,-1 1,1 0,-1 1,0 0,0 0,0 0,-1 0,1 1,-1 0,0 0,3 5,48 37,62 64,-19 2,-51-27,-10 11,21 101,-25-27,4 2,-14-44,-19-113,-1 1,-1-1,0 1,-1 0,0 0,-2 0,0 0,-1-1,-2 12,1 31,-10 122,-7-55,-13 4,-6-18,-3 50,32-140,0 1,1 0,2 0,0 0,2 1,0 0,2 0,0 0,2 0,1 0,1 4,-5 110,-12-76,12-48</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="90563.928">12122 5866,'38'56,"73"144,-51-106,-23-34,37 76,-72-133,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1-1,1 1,0-1,-1 0,1 0,0 0,0-1,0 1,1-1,-1 0,0 1,0-1,1-1,-1 1,1 0,-1-1,1 0,-1 0,1 0,-1 0,0 0,1-1,-1 1,1-1,-1 0,0 0,1-1,-1 1,0 0,0-1,0 0,0 0,0 0,-1 0,1 0,-1-1,1 1,0-1,120-62,-7-5,12 17,-106 38,-12 8</inkml:trace>
@@ -5672,7 +5803,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="190346.236">2271 3462,'-19'-114,"18"-427,1 136,21 271,-21-212,0 344,0 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,1 1,-1-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,0 0,0 0,0 0,1 1,83 15,-78-13,166 40,-170-43,-1-1,1 1,-1-1,1 1,-1 0,1 1,-1-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 1,-1-1,0 1,0 0,0 0,0 0,-1 0,1 0,0 1,-1-1,0 1,1 0,-1-1,0 1,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 1,0-1,-1 1,1-1,-1 1,1-1,-4 385,3-119,3-265,0 1,-1-1,1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,0 1,1-2,-1 1,1-1,-1 1,1-1,0 0,-1-1,1 1,0-1,0 0,0 0,1-1,-1 0,9 4,82 30,67 12,-128-37,0-3,0 0,0-2,0-2,1-1,15-3,-47 0,-1 0,0 0,1 0,-1 0,0-1,0 1,-1-1,1 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,-1 1,1-1,0 0,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 1,0-1,0 0,0 1,-2-3,3-48,33-125,-31 120,-3 48,1-1,0 0,1 1,0-1,1 0,1 1,-1 0,2-1,-1 1,4-4,-2 10,1 0,0 0,1 1,-1 0,1 0,-1 1,1 0,0 0,0 0,1 1,-1 0,1 0,-1 1,1 0,-1 1,1-1,-1 1,1 1,-1 0,1 0,-1 0,1 1,1 0,-6 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 1,0-1,0 1,0-1,-1 1,0 0,1-1,-1 1,-1 0,1-1,0 1,-1 0,4 26,27 76,-27-97,1 0,-2 0,1 1,-1-1,0 0,-1 1,0 0,-1-1,0 1,0 0,-2 6,2 40,2-51,0 0,1 0,0 0,0-1,0 0,1 1,-1-1,1 0,0-1,0 1,0-1,1 1,-1-1,1 0,0-1,-1 1,1-1,1 0,-1-1,0 1,0-1,1 0,-1 0,0 0,1-1,-1 0,1 0,-1 0,41 10,82 46,-111-49,-15-5,0 0,0 0,0 0,1-1,-1 1,1-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0-1,-1 1,1-1,0 1,0-1,0 0,0 0,0 0,0-1,-1 1,1-1,0 0,0 1,-1-1,1 0,0-1,-1 1,1 0,-1-1,1 0,-1 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,-1 0,1-2,-3-210,21-36,-9 30,17 76,36 53,-59 88,0-1,0 0,0 1,1 0,-1 1,1-1,-1 1,1 0,0 0,0 1,0-1,0 1,0 1,0-1,1 1,0 0,30-5,140-47,-166 47,1 0,-1 0,1 1,0 1,0 0,0 0,1 1,-1 1,1 0,-1 0,1 2,-1-1,0 2,1 0,-1 0,0 1,0 0,0 1,0 1,-1 0,0 0,4 3,-1 7,0 0,-1 1,0 0,-2 1,0 0,0 1,-2 0,0 1,-2 0,4 12,3 3,13 144,-19-85,12 36,-14-108,0 0,-2 1,0-1,-2 1,0 0,-2 0,0 0,-1 0,-2 2,1 47,2-48,1-1,-1 0,-1 0,-1 0,0 0,-2-1,-1 1,-5 13,-22 139,28-147,-2 0,-1 0,-2 0,0-1,-2 0,-10 18,-37 111,-17 20,44-33,31-137,-1 0,1 1,-1-1,-1 0,1-1,0 1,-1 0,0 0,0-1,-1 1,1-1,-1 1,0-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,0 0,0-1,-1 1,1-1,-1 0,0 0,0 0,1 0,-1-1,-2 0,-266-2,-362 1,520-19,-38-20,143 39,0 0,0-1,0-1,1 0,-1 0,0-1,1 0,0-1,0 0,0 0,0-1,0 0,0-1,-121-36,-71 22,-11-12,-18 33,96-21,-2 9,118 8,-53-28,59 16,-21-59,32 51,-17-51,-15-36,23 51,6 47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="192624.686">2656 2077,'-202'-12,"92"3,-26-8,13-24,26-4,16-46,22-42,39-39,20 150,-1 17,0-1,0 1,1-1,0 0,0 1,0-1,1 1,0-1,0 1,0 0,1-1,0 1,0 0,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,1 0,0 0,0 0,2-2,103-39,27 8,56 17,213 21,-395-1,0 0,0 0,1 1,-1 1,0 0,0 0,0 1,0 0,-1 1,1 0,-1 1,0 0,0 0,-1 0,7 6,67 79,-75-80,0 1,0-1,-1 1,0 0,-1 1,0-1,-1 1,0 0,-1 0,-1 0,0 1,0-1,-1 0,-1 1,0-1,0 1,-2-1,1 1,-2-1,1 0,-2 0,0 0,0 0,-2 2,-7 5,2 0,-1-1,-1 0,-1-1,0 0,-1-1,-1-1,0-1,-1 0,-8 4,-107 91,-4-26,41-33,-2-13,82-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="193822.627">3368 2384,'0'-32,"1"16,-1-1,0 0,-1 1,-1-1,0 0,-1 1,-1 0,-1-1,-4-9,4 10,1 0,0-1,1 0,1 1,1-1,0 0,1 0,1 0,2-11,-1-30,-1 52,-1 1,1 0,0-1,0 1,0 0,1 0,0 0,0 0,0 0,0 0,1 1,0-1,0 1,0 0,0 0,1 0,0 0,0 0,0 1,0-1,0 1,1 1,-1-1,1 0,0 1,0 0,0 0,0 1,0-1,0 1,3 0,173-15,-179 16,56-8,-53 6,-1 1,1-1,1 1,-1 0,0 1,0-1,0 1,0 0,0 0,0 1,1-1,-1 1,0 0,0 1,0-1,-1 1,1 0,0 0,3 3,1 3,-1 0,0 0,-1 1,0 1,-1-1,1 1,-2 0,0 0,0 1,0 0,-2 0,1 0,-1 0,-1 0,0 1,0 3,0-4,0 0,-1-1,0 1,-1 0,0 0,-1 0,0-1,-1 1,0 0,0-1,-1 1,-1-1,0 0,0 0,-1 0,0-1,-1 0,0 0,0 0,-1 0,0-1,-2 1,-115 87,6-20,4-7,99-64</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="195089.88">4696 2096,'-72'-21,"18"4,46 16,0 0,0-1,0-1,1 1,-1-1,1-1,0 1,0-1,0 0,0-1,0 0,1 0,0 0,0-1,1 1,-1-2,-1-2,-35-53,26 41,0-1,2-1,1 0,1-1,0 0,2-1,-3-12,-35-87,6 10,37 97,1 0,1 0,0-1,1 1,1-1,1 0,0 1,1-1,1-2,1-40,-4 50,1 1,1 0,-1-1,2 1,-1-1,1 1,1 0,-1 0,1 0,1 0,0 1,0-1,1 1,0 0,0 0,5-4,78-69,-53 64,2 1,0 3,0 1,2 1,-1 3,1 1,0 1,1 3,-1 1,1 2,-1 1,3 3,32-4,58 42,-13 20,41 39,-67-20,-59-54,36 45,7 82,-69-124,-1 1,-2-1,-1 1,-1 0,-2 1,-1-1,-1 2,1-30,0 1,0 7,1 1,-1 0,-1 0,0 0,-1-1,0 1,-1 0,-1-1,1 0,-2 0,1 0,-6 8,-53 109,-27-22,73-95,0 0,-1-1,-1-1,0 0,0-2,0 0,-1-1,0-1,-3 0,16-3,-110 38,-134-20,-57-21,155-37,137 37</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="195089.879">4696 2096,'-72'-21,"18"4,46 16,0 0,0-1,0-1,1 1,-1-1,1-1,0 1,0-1,0 0,0-1,0 0,1 0,0 0,0-1,1 1,-1-2,-1-2,-35-53,26 41,0-1,2-1,1 0,1-1,0 0,2-1,-3-12,-35-87,6 10,37 97,1 0,1 0,0-1,1 1,1-1,1 0,0 1,1-1,1-2,1-40,-4 50,1 1,1 0,-1-1,2 1,-1-1,1 1,1 0,-1 0,1 0,1 0,0 1,0-1,1 1,0 0,0 0,5-4,78-69,-53 64,2 1,0 3,0 1,2 1,-1 3,1 1,0 1,1 3,-1 1,1 2,-1 1,3 3,32-4,58 42,-13 20,41 39,-67-20,-59-54,36 45,7 82,-69-124,-1 1,-2-1,-1 1,-1 0,-2 1,-1-1,-1 2,1-30,0 1,0 7,1 1,-1 0,-1 0,0 0,-1-1,0 1,-1 0,-1-1,1 0,-2 0,1 0,-6 8,-53 109,-27-22,73-95,0 0,-1-1,-1-1,0 0,0-2,0 0,-1-1,0-1,-3 0,16-3,-110 38,-134-20,-57-21,155-37,137 37</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -6091,7 +6222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC4F207-852D-4D86-9999-6CE7E9561365}">
   <dimension ref="A1:L64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -6304,10 +6435,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743360CA-68AC-4B8B-9F47-FA08841F4764}">
-  <dimension ref="A2:C97"/>
+  <dimension ref="A2:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6399,10 +6530,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" t="s">
         <v>160</v>
-      </c>
-      <c r="B12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6474,10 +6605,10 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
@@ -6546,10 +6677,10 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
@@ -6591,10 +6722,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
@@ -6644,10 +6775,10 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
@@ -6705,10 +6836,10 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B56" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.45">
@@ -6764,7 +6895,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.45">
@@ -6843,7 +6974,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -6899,6 +7030,31 @@
     <row r="97" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +7165,7 @@
   <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7033,6 +7189,18 @@
       <c r="C2" t="s">
         <v>47</v>
       </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
@@ -7045,8 +7213,14 @@
       <c r="E3" s="20" t="s">
         <v>109</v>
       </c>
+      <c r="G3" s="10" t="s">
+        <v>166</v>
+      </c>
       <c r="I3" t="s">
         <v>110</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
@@ -7675,6 +7849,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7747,10 +7922,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3D4BDC-398D-456D-A78E-437EF538BC67}">
-  <dimension ref="D2:I30"/>
+  <dimension ref="D2:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7768,7 +7943,7 @@
         <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.45">
@@ -7776,7 +7951,7 @@
         <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.45">
@@ -7791,7 +7966,12 @@
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>147</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.45">
@@ -7804,7 +7984,7 @@
         <v>144</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.45">
@@ -7812,7 +7992,7 @@
         <v>145</v>
       </c>
       <c r="I15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.45">
@@ -7820,65 +8000,81 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
+        <v>175</v>
+      </c>
+      <c r="M19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D24" t="s">
+      <c r="H25" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D26" t="s">
         <v>149</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H26" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D25" t="s">
-        <v>150</v>
-      </c>
-      <c r="H25" t="s">
+    <row r="27" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D27" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D26" t="s">
+    <row r="28" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D27" t="s">
+    <row r="29" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
+        <v>177</v>
+      </c>
+      <c r="L31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="4:13" x14ac:dyDescent="0.45">
+      <c r="D32" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.45">
-      <c r="D30" t="s">
-        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikenaga0605\Desktop\Git - コピー\02Ikenaga\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11778B6C-DD35-4ED1-BF5F-932C5878C3FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6683636-3587-4FE3-9935-52B298B3DE9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="5" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
   </bookViews>
   <sheets>
     <sheet name="各シーンの完成図" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="182">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -825,13 +825,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>兎</t>
-    <rPh sb="0" eb="1">
-      <t>ウサギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>■敵3</t>
     <rPh sb="0" eb="2">
       <t>シカクテキ</t>
@@ -993,9 +986,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://assetstore.unity.com/packages/3d/characters/animals/mammals/golden-tiger-55797#description</t>
-  </si>
-  <si>
     <t>※なかったら四足歩行</t>
   </si>
   <si>
@@ -1326,13 +1316,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>兎</t>
-    <rPh sb="0" eb="1">
-      <t>ウサギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カメ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1481,6 +1464,28 @@
     <rPh sb="24" eb="25">
       <t>ト</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/animals/dog-knight-pbr-polyart-135227</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/animals/birds/egypt-pack-eagle-140079</t>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/creatures/rpg-monster-duo-pbr-polyart-157762</t>
+  </si>
+  <si>
+    <t>きのこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/creatures/dragon-for-boss-monster-hp-79398</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/characters/creatures/rpg-monster-buddy-pbr-polyart-253961</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1488,7 +1493,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,6 +1609,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1628,12 +1642,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,8 +1720,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5025,7 +5046,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="80297.267">4675 1612,'0'5,"1"10,-1 0,0 0,-1 1,-1-1,0-1,-1 1,-1 0,0-1,-1 1,-1-1,-6 12,-3 3,15-27,-1 1,0-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 0,-2 0,-178 10,-155 9,11-11,153 11,-94-20,262 0,1 0,-1 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,-1-2,0 1,-112-61,113 62,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 1,0-1,0 1,0 0,0 0,0 1,0-1,-1 2,1-1,0 1,-1 0,1 0,-5 1,-8-1,2 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="82225.461">2905 1612,'790'0,"-617"20,251-21,-639 21,-536-21,1004 13,164 7,-302-11,-1088-8,823 19,74-19,309 7,-20 18,97-16,-186-11,222 2,-751 0,314 15,137-10,222-6,-313 16,-36-10,63-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88381.481">2866 1997,'0'539,"0"-522</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.942">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.941">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91427.537">3039 2093,'597'0,"-580"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179163.202">5425 5729,'-34'-59,"18"41,-1 1,0 0,-1 2,-1 0,-1 1,-16-9,-45-43,-27-3,12 4,-78-31,36-4,130 94,0 1,1-1,-1-1,1 0,1 0,-1 0,1 0,0-1,1 0,0-1,0 1,1-1,0 0,-2-7,2 8,0 0,0 0,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 1,0 0,0 1,0 0,-1 0,1 0,-8-2,-11-10,-80-65,-64-9,95 38,-8 3,24 13,46 32</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180420.482">4136 4363,'-327'1,"210"19,115-21,-1 1,0 0,0-1,0 2,0-1,0 0,0 0,0 1,0 0,1 0,-1-1,0 2,0-1,1 0,-1 0,1 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,1 0,0-1,0 1,-1 0,2-1,-1 1,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,1 2,-1 6,0 0,0 1,2-1,-1 0,1 0,1 0,0 0,1 0,0-1,0 1,1-1,1 0,-1 0,2-1,-1 0,1 0,1 0,28 48,25 22,16-21,-35-24,-32-28</inkml:trace>
@@ -5386,7 +5407,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27216.361">6563 2938,'-1'-328,"-18"174,0-20,19-499,59 346,-52 291,-7 36,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,21 84,55 147,-47-99,6-21,-17 6,-1 0,1 0,40 115,-4-18,-53-198</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="28270.605">7524 2745,'47'-94,"-30"69,58-68,25-41,53-51,-40 25,-11 3,-73 100,89-104,72-83,-189 243,-1 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,26 222,-17-9,-12-133,-13 114,-9-63,-21 36,16-62,-43 125,60-167,8-53</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29244.182">8352 2842,'-3'17,"0"1,-2-1,0 0,0 0,-2 0,0-1,-1 0,-1 0,-7 10,7-10,-57 99,-2 0,21-26,41-78</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.721">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.72">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="60999.584">2117 3784,'-30'56,"-3"77,28-117,0 1,2 0,0 1,1-1,1 0,1 1,0-1,1 1,1 4,1 37,-3 191,19-135,31 47,-15-23,4-25,-17-79,-17-23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="62503.804">2849 3727,'22'82,"-17"-38,26 157,-12-27,-20 153,0-317,0 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-2 0,1-1,-1 0,-1 0,-27 46,-75 102,38-107,5-1,56-40,-1-1,0 0,0-1,0 0,0-1,-1 0,0-1,0 0,-1-1,1 0,-13 0,-110 39,28-18,105-25,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 1,1-2,-5-18,-2 6,0 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="68867.286">1983 4093,'-44'-39,"-63"-5,15-18,-109-44,41 34,5-11,24 11,20-2,-16 0,75 30,-79-13,68 30,62 28,-1 0,1 0,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 1,1-1,90 152,-33-55,-52-93,-1 0,1 1,-1 0,0 0,-1 1,1-1,-1 1,-1 0,1 1,-1-1,-1 1,1 0,1 5,94 100,-9-29,5 29,-15-30,38 47,-114-125,0-1,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,1-1,-1 1,1-1,-1 0,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,0-1,0 1,-1-1,1 0,4-1,72 6,40 27,-2 23,4 15,-9-12,-104-52</inkml:trace>
@@ -5574,7 +5595,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">194 58,'19'56,"25"141,-28-27,-8-26,2 74,-12-134,3 163,18-99,-19 1068,0 621,-21-1630,10 82,-8-116,10 40,12-178,-3 0,0 0,-3 0,-1 0,-1 0,-7 19,3-21,1 1,1 0,2 0,1 0,2 1,2 16,-12 129,-35 41,28-65,0-14,-20 101,20-70,0-20,8 87,8-218,1 1,0-1,2 1,0 0,2-1,0 1,2-1,2 7,-1 4,53 141,-37-60,43 98,-60-206,1 1,0-1,0 0,0-1,0 1,1-1,0 0,0-1,1 1,-1-1,1 0,0-1,0 0,0 0,0 0,1-1,-1 0,1 0,-1-1,1 0,0-1,-1 1,1-1,0-1,-1 0,1 0,6-2,74 9,51 21,24-11,113 18,109-7,19 21,-39-27,-220-10,0-6,33-8,-10 1,497 3,-340 19,366-20,-214 39,252-40,-413 21,161-2,157-18,-351 20,784-21,-825 22,162-11,-67-2,-168-28,566 21,-562-25,7 7,-23-1,25-1,29 0,70 5,-125-7,82 10,37-13,-21-3,-186 13,1 3,0 4,0 2,51 5,140-21,-26-3,-181 16,0 2,0 3,1 1,36 6,15-2,388-2,-319-20,163 9,-24 2,-193 11,205-3,-130-18,413 20,-401-22,172 21,-227-38,117-16,-115 30,57-36,13 17,-222 41,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,1 0,-2 0,1 0,0 0,0 0,-1 0,0 0,0 0,1 0,-2 0,1 0,0 1,0-1,-1 0,0 1,1-1,-1 1,0 0,0 0,-1-1,-1 0,-6-16,-128-214,90 93,2 30,-12-87,21 66,-1-61,-6 5,42 181,-3-16,0-1,2 0,1-1,0 1,2 0,0-1,3-9,-1-30,0 1,-4 0,-2 0,-2 0,-5-8,-26-86,38-229,-20 225,0-111,-2 68,22-433,-20 475,19-1004,0 778,-20 187,10 8,-6-31,-15-46,-8 57,20 39,0 19,-19 22,-2-24,2-113,39 37,-20 136,19 92,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 1,-1-1,0 1,-2-1,-132 37,33-1,-134 18,25-25,1 18,24-10,-145 19,37-35,-37 1,-4516-21,4658-18,-553 18,522-19,-478 21,484-21,-453 21,479-21,-105 9,65-11,42 15,147 9,-1-3,0-1,1-2,0-2,0-2,-185-8,88 14,-94-17,-123-20,-16 40,233-20,-70-2,-22 7,-13 3,65-2,7-6,-482 20,480-21,-749 21,750-21,-1559 21,1715-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12518.054">5870 3522,'0'-7,"0"0,1 0,0-1,0 1,0 1,1-1,0 0,1 0,-1 1,1-1,0 1,1 0,0 0,0 0,0 0,2-1,88-111,-29 20,-11 25,-19-44,-6 29,4-33,17 22,-47 95,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,0 1,-1 0,1-1,0 2,0-1,1 1,-1-1,0 2,0-1,1 0,-1 1,0 0,1 0,-1 1,0-1,0 1,1 0,-1 1,0-1,0 1,29 1,50-3,139 16,-220-15,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,-13 96,8-81,-1 0,-1 0,-1-1,0-1,-2 1,0-1,-12 13,-26 43,-20 67,23-51,0-9,-1 4,-37 66,-34-38,8 15,23-38,21-34,52-47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13666.488">7852 2694,'-1'290,"-18"-156,5-13,-3 66,9-90,8-81</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.966">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.965">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16049.046">9968 2829,'68'1,"-36"1,1-1,0-2,-1-1,1-2,-1-1,0-1,14-6,165-19,-30 9,-8 4,115 19,-191 18,76 2,-171-22,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 1,-2 12,0 0,-1 1,-1-2,-1 1,0 0,-1-1,0 0,-1-1,-1 0,-5 6,-114 122,58-89,-65 33,14-11,-43-10,69-39,83-21</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17176.698">10507 3022,'0'270,"-20"-97,21-139,0-18,0 0,-2-1,1 1,-2 0,0-1,-1 0,0 1,-2-1,1 0,-3 2,-25 217,1-151,23-58,0 0,-2-1,-1 0,-1-1,0-1,-10 12,-45 54,7 2,54-79,0 0,-1 0,0-1,0 0,-1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 0,-2 0,3 0</inkml:trace>
 </inkml:ink>
@@ -5652,7 +5673,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="40624.774">3080 1733,'1'29,"0"-1,-1 0,0 0,-3 1,0-1,-2-1,0 1,-2-1,-11 26,-29 78,17-9,29-115,0-1,-1 0,0 0,0 0,-1 0,1 0,-1-1,0 1,-1-1,1 0,-1 1,0-2,-1 1,-4 4,-1-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="41887.526">3234 1772,'19'56,"-18"158,0-211,1 1,-1-1,1 0,0 0,0-1,1 1,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,1 0,-1-1,0 1,0-1,1 0,-1 0,1 0,-1 0,1-1,-1 0,1 1,-1-1,1 0,-1-1,1 1,2-1,24 4,102 27,-109-19,-14-8,-1 0,1 0,-1 1,0 0,0 1,-1 0,1 0,-1 0,0 1,0 0,-1 1,0-1,0 1,0 1,-1-1,0 1,-1-1,1 1,-2 1,1-1,-1 0,0 1,-1 0,0 0,-2-8,3 15,-2 1,0 0,-1 0,0-1,-2 1,0 0,0-1,-5 15,4-25,0 0,0 1,0-1,-1 0,0-1,0 1,0-1,-1 0,0 0,0 0,0 0,-1-1,1 0,-1 0,0-1,0 1,-1-1,1-1,0 1,-1-1,0 0,1 0,-1-1,0 0,0 0,0-1,0 0,0 0,0-1,0 0,0 0,1 0,-1-1,0 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,0-1,0 0,0 0,0-1,-77-132,33 36,43 89</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="43930.006">3427 1849,'-233'0,"812"0,-562 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="53503.72">10239 3446,'-1'-5,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,-35-69,27-272,5 135,44 94,-31 98,0 0,2 0,0 1,1 0,0 0,2 1,0 1,1 0,1 0,0 1,12-10,64-59,3 23,-17 20,58-11,-64 35,113-12,18 18,-34 4,-161 8,1 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,29 38,14 28,25 45,17 16,-12-15,20 46,-86-140,-1 0,-2 1,0 0,-1 0,-1 0,-1 0,-2 1,0 0,-2-1,-2 23,1 25,-39 62,1-36,-46 12,71-95,-1-1,-1-1,1-1,-2 0,0-1,0-1,-1-1,0 0,-1-2,0 0,0-1,-1-1,-3 0,-184 18,-100-24,116-54,-43-22,94 7,54 3,-27 1,101 55,2 2</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="53503.719">10239 3446,'-1'-5,"0"-1,0 0,0 1,-1-1,0 1,0 0,0 0,0 0,-1 0,0 0,0 0,-1 1,1-1,-1 1,0-1,-35-69,27-272,5 135,44 94,-31 98,0 0,2 0,0 1,1 0,0 0,2 1,0 1,1 0,1 0,0 1,12-10,64-59,3 23,-17 20,58-11,-64 35,113-12,18 18,-34 4,-161 8,1 1,0 0,-1 0,1 0,-1 0,1 1,-1 0,0 0,0 1,-1-1,1 1,-1 0,1 0,-1 0,0 1,-1 0,1 0,-1 0,0 0,0 0,-1 0,29 38,14 28,25 45,17 16,-12-15,20 46,-86-140,-1 0,-2 1,0 0,-1 0,-1 0,-1 0,-2 1,0 0,-2-1,-2 23,1 25,-39 62,1-36,-46 12,71-95,-1-1,-1-1,1-1,-2 0,0-1,0-1,-1-1,0 0,-1-2,0 0,0-1,-1-1,-3 0,-184 18,-100-24,116-54,-43-22,94 7,54 3,-27 1,101 55,2 2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="54264.327">10661 2753,'0'-3,"0"-4,0-5,4-3,0-3,0-1,-1-1,3 0,3 0,1 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="54854.51">11008 2580,'0'3,"0"5,0 4,0 3,-4 2,-3 2,-2 1,2 0,1 0,3 0,0 0,2 0,1-1,0 0,0-3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="56016.159">10739 3138,'55'27,"106"58,-34-38,-114-43,0 0,1 0,-1-1,1-1,0 0,0-1,0 0,0-1,0-1,0 0,0-1,37 0,56-24,-94 21</inkml:trace>
@@ -5669,7 +5690,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="109082.502">3889 5641,'-61'-34,"47"22,0-1,1 0,0-1,1 0,1-1,1 0,0-1,0 0,2-1,0 0,1 0,-3-13,-49-112,30 62,-9-33,12 31,-8-68,36-16,25 192,32 115,-56-128,1-2,1 0,-1 0,2 0,0 0,0-1,1 0,0 0,0-1,3 1,81 163,-33-51,6 6,-36-40,-23-75</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="110118.473">4158 5525,'18'-114,"3"-62,18-54,34-25,-8 128,-37 67,-21 93,3 134,0 38,-12-128,2 442,0-502</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="111680.484">4235 6603,'20'213,"-21"133,21-212,-21 483,21-483,-9 66,-10-193,4 9,-3-27,-3-357,1 352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.944">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.943">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="113307.215">4370 7314,'37'-51,"29"-53,79-112,-28 68,-17 17,-64 84,-28 44</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114064.699">4061 7950,'-30'82,"-37"67,-7-9,10-31,-7 28,-13 47,54-141,25-59,5 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114744.305">4042 8046,'232'1,"-39"68,-46 22,-81-43,120 85,-41-20,-122-94,-16-9</inkml:trace>
@@ -6437,8 +6458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743360CA-68AC-4B8B-9F47-FA08841F4764}">
   <dimension ref="A2:C103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -6471,6 +6492,9 @@
       <c r="B4" t="s">
         <v>101</v>
       </c>
+      <c r="C4" s="23" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -6530,10 +6554,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -6543,9 +6567,6 @@
       <c r="B14" t="s">
         <v>101</v>
       </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -6563,7 +6584,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -6571,7 +6592,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -6579,7 +6600,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -6587,7 +6608,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>109</v>
       </c>
@@ -6595,7 +6616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>109</v>
       </c>
@@ -6603,23 +6624,26 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -6627,7 +6651,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>110</v>
       </c>
@@ -6635,7 +6659,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -6643,7 +6667,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>110</v>
       </c>
@@ -6651,7 +6675,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>110</v>
       </c>
@@ -6659,7 +6683,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -6667,7 +6691,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -6675,28 +6699,31 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>113</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -6704,7 +6731,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -6712,7 +6739,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -6720,81 +6747,87 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B42" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C42" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B45" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>115</v>
       </c>
       <c r="B50" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>115</v>
       </c>
@@ -6802,7 +6835,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -6810,7 +6843,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>115</v>
       </c>
@@ -6818,15 +6851,15 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -6834,129 +6867,138 @@
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B56" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
         <v>123</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>124</v>
       </c>
       <c r="B59" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C59" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B60" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B61" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B63" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B65" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B67" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B70" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C70" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B72" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B73" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B77" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
         <v>127</v>
       </c>
-      <c r="B79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C79" s="23" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
         <v>106</v>
@@ -6974,7 +7016,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.45">
@@ -7034,32 +7076,40 @@
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{5D5B3CD9-9C2A-4B6C-9D72-FF2DDDA399B2}"/>
+    <hyperlink ref="C59" r:id="rId2" xr:uid="{BBA530B6-BC58-4669-AAA2-8073DE0D88B3}"/>
+    <hyperlink ref="C70" r:id="rId3" xr:uid="{8930ED26-7FA2-452A-99E5-7B5CE2D69CE1}"/>
+    <hyperlink ref="C79" r:id="rId4" xr:uid="{9FC1868B-F8D2-4769-9F5D-9C539FB5C44C}"/>
+    <hyperlink ref="C42" r:id="rId5" xr:uid="{2E31B50F-3FCD-449D-988A-564E6D7A0AB1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -7204,28 +7254,28 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="10"/>
       <c r="E3" s="20" t="s">
         <v>109</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
         <v>110</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -7234,7 +7284,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -7243,7 +7293,7 @@
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -7301,7 +7351,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -7373,10 +7423,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
@@ -7455,10 +7505,10 @@
         <v>21</v>
       </c>
       <c r="C19" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
         <v>133</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -7488,7 +7538,7 @@
     </row>
     <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -7560,10 +7610,10 @@
         <v>31</v>
       </c>
       <c r="C30" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -7640,7 +7690,7 @@
         <v>53</v>
       </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
@@ -7924,7 +7974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC3D4BDC-398D-456D-A78E-437EF538BC67}">
   <dimension ref="D2:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
@@ -7935,43 +7985,43 @@
         <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.45">
@@ -7981,46 +8031,46 @@
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D20" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.45">
@@ -8030,51 +8080,51 @@
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D26" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D30" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L31" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="4:13" x14ac:dyDescent="0.45">
       <c r="D32" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
+++ b/3DLv3_2023_vs2019/Plan/ゲーム制作の仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikenaga0605\Desktop\Git - コピー\02Ikenaga\3DLv3_2023_vs2019\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6683636-3587-4FE3-9935-52B298B3DE9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A802DC3A-B66D-480E-A650-C78C7F5BF613}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8844" activeTab="1" xr2:uid="{F7963DEF-A851-4511-A767-56D02CC557A6}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="183">
   <si>
     <t>タイトル</t>
     <phoneticPr fontId="1"/>
@@ -1486,6 +1486,10 @@
   </si>
   <si>
     <t>https://assetstore.unity.com/packages/3d/characters/creatures/rpg-monster-buddy-pbr-polyart-253961</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/3d/props/potions-coin-and-box-of-pandora-pack-71778</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5046,7 +5050,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="80297.267">4675 1612,'0'5,"1"10,-1 0,0 0,-1 1,-1-1,0-1,-1 1,-1 0,0-1,-1 1,-1-1,-6 12,-3 3,15-27,-1 1,0-1,0 1,0 0,0-1,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,-1-1,1 1,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 0,-2 0,-178 10,-155 9,11-11,153 11,-94-20,262 0,1 0,-1 0,1 0,-1-1,1 0,0 0,0 0,0-1,0 0,0 0,1 0,-1 0,1-1,0 1,0-1,-1-2,0 1,-112-61,113 62,-1 0,0 0,0 0,0 1,-1-1,1 1,-1 1,0-1,0 1,0 0,0 0,0 1,0-1,-1 2,1-1,0 1,-1 0,1 0,-5 1,-8-1,2 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br4" timeOffset="82225.461">2905 1612,'790'0,"-617"20,251-21,-639 21,-536-21,1004 13,164 7,-302-11,-1088-8,823 19,74-19,309 7,-20 18,97-16,-186-11,222 2,-751 0,314 15,137-10,222-6,-313 16,-36-10,63-5</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="88381.481">2866 1997,'0'539,"0"-522</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.941">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="89880.94">3000 1997,'4'6,"-1"1,0-1,0 1,0 0,-1 0,0 0,-1 1,0-1,0 0,0 1,-1-1,0 0,0 1,-1-1,0 2,0 10,2-11,0 0,0-1,1 1,0 0,0 0,1-1,0 1,0-1,1 0,0 0,0 0,1-1,0 1,0-1,0 0,1-1,2 3,28 34,0 49,-31-76,-1-1,0 1,-1 0,0 0,-1 0,-1 0,-1 0,0 0,-1 0,-1 8,0 26,3-45,-1-1,0 1,0-1,0 0,0 1,0-1,-1 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,0-1,0 1,-1-1,1 1,-1-1,1 0,-1 0,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 0,1-1,0 1,-1-1,1 1,-1-1,1 0,0-1,-1 1,1 0,0-1,-1 0,1 0,0 0,0 0,-1 0,1-1,0 1,0-1,1 0,-4-2,1-1,0 1,0-1,0-1,0 1,1-1,0 0,0 0,1 0,0 0,0 0,0-1,1 0,0 1,0-1,0 0,1 0,0-1,-14-47,10 43</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="91427.537">3039 2093,'597'0,"-580"0</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="179163.202">5425 5729,'-34'-59,"18"41,-1 1,0 0,-1 2,-1 0,-1 1,-16-9,-45-43,-27-3,12 4,-78-31,36-4,130 94,0 1,1-1,-1-1,1 0,1 0,-1 0,1 0,0-1,1 0,0-1,0 1,1-1,0 0,-2-7,2 8,0 0,0 0,-1 1,0-1,0 1,-1 0,0 1,0-1,-1 1,0 0,0 1,0 0,-1 0,1 0,-8-2,-11-10,-80-65,-64-9,95 38,-8 3,24 13,46 32</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="180420.482">4136 4363,'-327'1,"210"19,115-21,-1 1,0 0,0-1,0 2,0-1,0 0,0 0,0 1,0 0,1 0,-1-1,0 2,0-1,1 0,-1 0,1 1,-1 0,1-1,-1 1,1 0,0 0,0 0,0 0,0 1,1-1,-1 0,0 1,1 0,0-1,0 1,-1 0,2-1,-1 1,0 0,0 0,1 0,0 0,-1 0,1 0,0 0,1 2,-1 6,0 0,0 1,2-1,-1 0,1 0,1 0,0 0,1 0,0-1,0 1,1-1,1 0,-1 0,2-1,-1 0,1 0,1 0,28 48,25 22,16-21,-35-24,-32-28</inkml:trace>
@@ -5407,7 +5411,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="27216.361">6563 2938,'-1'-328,"-18"174,0-20,19-499,59 346,-52 291,-7 36,0 1,0-1,0 1,0-1,0 1,0-1,0 0,1 1,-1-1,0 1,0-1,0 1,1-1,-1 0,0 1,1-1,-1 0,0 1,1-1,-1 0,0 0,1 1,-1-1,0 0,1 0,-1 1,1-1,-1 0,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 0,-1 0,0-1,1 1,-1 0,1 0,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,1 0,-1-1,0 1,0-1,0 1,1-1,21 84,55 147,-47-99,6-21,-17 6,-1 0,1 0,40 115,-4-18,-53-198</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="28270.605">7524 2745,'47'-94,"-30"69,58-68,25-41,53-51,-40 25,-11 3,-73 100,89-104,72-83,-189 243,-1 0,0 0,1-1,-1 1,1 0,-1 0,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,0-1,0 1,1-1,-1 1,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 1,1-1,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 1,0-1,1 1,26 222,-17-9,-12-133,-13 114,-9-63,-21 36,16-62,-43 125,60-167,8-53</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="29244.182">8352 2842,'-3'17,"0"1,-2-1,0 0,0 0,-2 0,0-1,-1 0,-1 0,-7 10,7-10,-57 99,-2 0,21-26,41-78</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.72">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="59129.719">2387 3843,'-16'0,"0"0,0-2,0 1,0-2,0 0,0-1,1-1,-1 0,1-1,1 0,-1-1,1-1,0-1,-6-5,-51-52,31-27,-11-50,36-131,13 269,-1-1,1 1,0-1,1 0,0 0,-1 0,2 0,-1 0,1 0,0 0,0 0,1 0,-1 0,1 0,1 0,-1 1,1-1,0 0,0 1,1-1,0 1,0 0,0 0,0 0,3-3,24-24,33-17,24 1,-77 44,0 0,0 0,1 1,-1 1,1 0,0 0,0 1,0 0,-1 1,1 0,0 1,0 0,3 1,30 1,206-2,-152 35,-88-32,1 1,-1-1,0 1,0 1,-1 0,1 1,-1 0,-1 0,1 0,-1 1,2 4,24 18,24 41,-15 60,-25 23,-19 58,-1-203,-1 1,1-1,-2 0,1 0,-1 0,-1-1,0 1,0-1,0 0,-1-1,-1 1,1-1,-1 0,0-1,0 0,-1 0,0 0,0-1,0 0,-1-1,0 1,-4 0,-93 26,-31 5,-18 1,140-36</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="60999.584">2117 3784,'-30'56,"-3"77,28-117,0 1,2 0,0 1,1-1,1 0,1 1,0-1,1 1,1 4,1 37,-3 191,19-135,31 47,-15-23,4-25,-17-79,-17-23</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="62503.804">2849 3727,'22'82,"-17"-38,26 157,-12-27,-20 153,0-317,0 0,-1 0,-1 0,0-1,0 1,-1-1,0 0,-1 0,1 0,-2 0,1-1,-1 0,-1 0,-27 46,-75 102,38-107,5-1,56-40,-1-1,0 0,0-1,0 0,0-1,-1 0,0-1,0 0,-1-1,1 0,-13 0,-110 39,28-18,105-25,-1-1,1 1,0-1,0 0,-1 0,1 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,0 1,1-1,0 0,-1 0,1 0,0 0,0 1,1-2,-5-18,-2 6,0 1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br3" timeOffset="68867.286">1983 4093,'-44'-39,"-63"-5,15-18,-109-44,41 34,5-11,24 11,20-2,-16 0,75 30,-79-13,68 30,62 28,-1 0,1 0,0 0,0 1,1-1,-1 1,0-1,0 0,1 1,-1-1,1 1,-1-1,1 1,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,1 1,-1-1,0 1,1-1,-1 1,1-1,-1 1,1-1,0 1,0-1,-1 1,1-1,0 0,0 0,0 1,1-1,90 152,-33-55,-52-93,-1 0,1 1,-1 0,0 0,-1 1,1-1,-1 1,-1 0,1 1,-1-1,-1 1,1 0,1 5,94 100,-9-29,5 29,-15-30,38 47,-114-125,0-1,0 0,1 0,0-1,-1 1,1-1,0 0,0 0,1-1,-1 1,1-1,-1 0,1-1,0 1,-1-1,1 0,0-1,0 1,0-1,0-1,0 1,-1-1,1 0,4-1,72 6,40 27,-2 23,4 15,-9-12,-104-52</inkml:trace>
@@ -5595,7 +5599,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0">194 58,'19'56,"25"141,-28-27,-8-26,2 74,-12-134,3 163,18-99,-19 1068,0 621,-21-1630,10 82,-8-116,10 40,12-178,-3 0,0 0,-3 0,-1 0,-1 0,-7 19,3-21,1 1,1 0,2 0,1 0,2 1,2 16,-12 129,-35 41,28-65,0-14,-20 101,20-70,0-20,8 87,8-218,1 1,0-1,2 1,0 0,2-1,0 1,2-1,2 7,-1 4,53 141,-37-60,43 98,-60-206,1 1,0-1,0 0,0-1,0 1,1-1,0 0,0-1,1 1,-1-1,1 0,0-1,0 0,0 0,0 0,1-1,-1 0,1 0,-1-1,1 0,0-1,-1 1,1-1,0-1,-1 0,1 0,6-2,74 9,51 21,24-11,113 18,109-7,19 21,-39-27,-220-10,0-6,33-8,-10 1,497 3,-340 19,366-20,-214 39,252-40,-413 21,161-2,157-18,-351 20,784-21,-825 22,162-11,-67-2,-168-28,566 21,-562-25,7 7,-23-1,25-1,29 0,70 5,-125-7,82 10,37-13,-21-3,-186 13,1 3,0 4,0 2,51 5,140-21,-26-3,-181 16,0 2,0 3,1 1,36 6,15-2,388-2,-319-20,163 9,-24 2,-193 11,205-3,-130-18,413 20,-401-22,172 21,-227-38,117-16,-115 30,57-36,13 17,-222 41,0-1,0 1,0 0,0-1,-1 1,1-1,-1 1,1-1,-1 0,0 0,0 1,0-1,0 0,-1 0,1 0,-1 0,0 0,1 0,-2 0,1 0,0 0,0 0,-1 0,0 0,0 0,1 0,-2 0,1 0,0 1,0-1,-1 0,0 1,1-1,-1 1,0 0,0 0,-1-1,-1 0,-6-16,-128-214,90 93,2 30,-12-87,21 66,-1-61,-6 5,42 181,-3-16,0-1,2 0,1-1,0 1,2 0,0-1,3-9,-1-30,0 1,-4 0,-2 0,-2 0,-5-8,-26-86,38-229,-20 225,0-111,-2 68,22-433,-20 475,19-1004,0 778,-20 187,10 8,-6-31,-15-46,-8 57,20 39,0 19,-19 22,-2-24,2-113,39 37,-20 136,19 92,-1 0,1 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 1,0-1,-1 1,1-1,0 1,-1 0,0 0,1 1,-1-1,0 1,-2-1,-132 37,33-1,-134 18,25-25,1 18,24-10,-145 19,37-35,-37 1,-4516-21,4658-18,-553 18,522-19,-478 21,484-21,-453 21,479-21,-105 9,65-11,42 15,147 9,-1-3,0-1,1-2,0-2,0-2,-185-8,88 14,-94-17,-123-20,-16 40,233-20,-70-2,-22 7,-13 3,65-2,7-6,-482 20,480-21,-749 21,750-21,-1559 21,1715-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="12518.054">5870 3522,'0'-7,"0"0,1 0,0-1,0 1,0 1,1-1,0 0,1 0,-1 1,1-1,0 1,1 0,0 0,0 0,0 0,2-1,88-111,-29 20,-11 25,-19-44,-6 29,4-33,17 22,-47 95,1 0,-1 0,1 0,0 1,0-1,0 1,1 0,-1 0,1 0,0 1,-1 0,1-1,0 2,0-1,1 1,-1-1,0 2,0-1,1 0,-1 1,0 0,1 0,-1 1,0-1,0 1,1 0,-1 1,0-1,0 1,29 1,50-3,139 16,-220-15,0 0,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 1,0-1,0 0,0 1,-1 0,1-1,-1 1,1 0,-1 0,0-1,0 1,0 0,0 0,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,-1 1,-13 96,8-81,-1 0,-1 0,-1-1,0-1,-2 1,0-1,-12 13,-26 43,-20 67,23-51,0-9,-1 4,-37 66,-34-38,8 15,23-38,21-34,52-47</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13666.488">7852 2694,'-1'290,"-18"-156,5-13,-3 66,9-90,8-81</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.965">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14470.964">8660 2810,'0'925,"-34"-810,-47-18,6 21,-106 28,110-95,61-40</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16049.046">9968 2829,'68'1,"-36"1,1-1,0-2,-1-1,1-2,-1-1,0-1,14-6,165-19,-30 9,-8 4,115 19,-191 18,76 2,-171-22,0 1,1 0,-1 0,0 0,1 0,-1 0,0 1,0-1,1 1,-1 0,0-1,0 1,0 0,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0 0,-1-1,0 1,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,-1 0,0 0,1 1,-1-1,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 1,-2 12,0 0,-1 1,-1-2,-1 1,0 0,-1-1,0 0,-1-1,-1 0,-5 6,-114 122,58-89,-65 33,14-11,-43-10,69-39,83-21</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17176.698">10507 3022,'0'270,"-20"-97,21-139,0-18,0 0,-2-1,1 1,-2 0,0-1,-1 0,0 1,-2-1,1 0,-3 2,-25 217,1-151,23-58,0 0,-2-1,-1 0,-1-1,0-1,-10 12,-45 54,7 2,54-79,0 0,-1 0,0-1,0 0,-1 0,-1-1,0 0,0 0,0-1,-1 0,0-1,-1 0,-2 0,3 0</inkml:trace>
 </inkml:ink>
@@ -5690,7 +5694,7 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="109082.502">3889 5641,'-61'-34,"47"22,0-1,1 0,0-1,1 0,1-1,1 0,0-1,0 0,2-1,0 0,1 0,-3-13,-49-112,30 62,-9-33,12 31,-8-68,36-16,25 192,32 115,-56-128,1-2,1 0,-1 0,2 0,0 0,0-1,1 0,0 0,0-1,3 1,81 163,-33-51,6 6,-36-40,-23-75</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="110118.473">4158 5525,'18'-114,"3"-62,18-54,34-25,-8 128,-37 67,-21 93,3 134,0 38,-12-128,2 442,0-502</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="111680.484">4235 6603,'20'213,"-21"133,21-212,-21 483,21-483,-9 66,-10-193,4 9,-3-27,-3-357,1 352</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.943">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="112488.942">4292 7488,'2'-4,"-1"0,0 0,-1 0,1 0,0 0,-1 0,0 0,0 0,-1 0,1 0,-1 0,1-1,-1 2,-1-1,1 0,0 0,-1 0,0 0,0 1,0-1,0 1,-1 0,1-1,-1 1,0 0,0 1,0-1,-4-2,-3-9,-42-72,-26-6,-5 6,14-28,61 102,0 0,1-1,0 0,1 0,0-1,1 1,1-1,0 0,-1-9,-14-43,12 53,-1 0,0 1,0 0,-2 0,1 1,-1 1,-1-1,0 2,0-1,-5-1,7 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="113307.215">4370 7314,'37'-51,"29"-53,79-112,-28 68,-17 17,-64 84,-28 44</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114064.699">4061 7950,'-30'82,"-37"67,-7-9,10-31,-7 28,-13 47,54-141,25-59,5 4</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="114744.305">4042 8046,'232'1,"-39"68,-46 22,-81-43,120 85,-41-20,-122-94,-16-9</inkml:trace>
@@ -6458,8 +6462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743360CA-68AC-4B8B-9F47-FA08841F4764}">
   <dimension ref="A2:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -7004,67 +7008,76 @@
         <v>106</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B81" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B82" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B83" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C86" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C87" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C88" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>58</v>
       </c>
@@ -7107,9 +7120,12 @@
     <hyperlink ref="C70" r:id="rId3" xr:uid="{8930ED26-7FA2-452A-99E5-7B5CE2D69CE1}"/>
     <hyperlink ref="C79" r:id="rId4" xr:uid="{9FC1868B-F8D2-4769-9F5D-9C539FB5C44C}"/>
     <hyperlink ref="C42" r:id="rId5" xr:uid="{2E31B50F-3FCD-449D-988A-564E6D7A0AB1}"/>
+    <hyperlink ref="C86" r:id="rId6" xr:uid="{DFAB0F34-0203-4EF0-8694-861B0C4C18E5}"/>
+    <hyperlink ref="C87" r:id="rId7" xr:uid="{E84378F3-BBA3-41F1-A53A-BE09F002E63B}"/>
+    <hyperlink ref="C88" r:id="rId8" xr:uid="{7600A822-E4CD-4DCF-AACB-CD28BD7F3464}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
